--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8295" uniqueCount="1603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8454" uniqueCount="1659">
   <si>
     <t>type</t>
   </si>
@@ -4539,12 +4539,6 @@
     <t>С какой командой играл Зенит в прошлом туре?</t>
   </si>
   <si>
-    <t>На каком месте находится Зенит после восемнадцатии туров?</t>
-  </si>
-  <si>
-    <t>На каком месте находится ЦСКА после восемнадцатии туров?</t>
-  </si>
-  <si>
     <t>zs_dukeiros</t>
   </si>
   <si>
@@ -4569,117 +4563,18 @@
     <t>Луис Энрике</t>
   </si>
   <si>
-    <t>cska_rivandi</t>
-  </si>
-  <si>
-    <t>Амир Риванди</t>
-  </si>
-  <si>
-    <t>Рифат Жемалетдинов</t>
-  </si>
-  <si>
-    <t>Сауль Гуарарапа</t>
-  </si>
-  <si>
-    <t>cska_zemalletdinov</t>
-  </si>
-  <si>
     <t>Российский полузащитник</t>
   </si>
   <si>
-    <t>Миксим Мухин</t>
-  </si>
-  <si>
-    <t>cska_pianich</t>
-  </si>
-  <si>
-    <t>Боснийский полузащитник</t>
-  </si>
-  <si>
-    <t>Миралем Пьянич</t>
-  </si>
-  <si>
-    <t>Аббосбек Файзуллаев</t>
-  </si>
-  <si>
-    <t>cska_guarirapa</t>
-  </si>
-  <si>
-    <t>Венесуэльский нападающий</t>
-  </si>
-  <si>
-    <t>8 голов в 10 матчах</t>
-  </si>
-  <si>
-    <t>7 голов в 18 матчах</t>
-  </si>
-  <si>
-    <t>с 2024 года по настоящее время</t>
-  </si>
-  <si>
     <t>best_goal</t>
   </si>
   <si>
-    <t>Зенит 1:2 Акрон Тольятти (А. Мостовой 21' - С. Лончар 10', А. Дзюба 40')</t>
-  </si>
-  <si>
-    <t>20 тур. 08.03.2025. 14:30</t>
-  </si>
-  <si>
-    <t>20 тур. 08.03.2025. 17:00</t>
-  </si>
-  <si>
-    <t>Факел 0:1 ЦСКА (Т. Мусаев 40')</t>
-  </si>
-  <si>
-    <t>39 очков</t>
-  </si>
-  <si>
-    <t>31 очков</t>
-  </si>
-  <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_faizulin_lg.webp</t>
   </si>
   <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/zs_anukov.jpg</t>
   </si>
   <si>
-    <t>Зенит 2:2 ЦСКА (Д. Сантос 49', А. Соболев 90+3' - М. Кисляк 57', А. Шуманский 88')</t>
-  </si>
-  <si>
-    <t>Зенит 2:2 ЦСКА</t>
-  </si>
-  <si>
-    <t>Зенит 1:2 ЦСКА</t>
-  </si>
-  <si>
-    <t>Зенит 0:2 ЦСКА</t>
-  </si>
-  <si>
-    <t>Зенит 2:0 ЦСКА</t>
-  </si>
-  <si>
-    <t>Зенит 3:0 ЦСКА</t>
-  </si>
-  <si>
-    <t>Зенит 0:0 ЦСКА</t>
-  </si>
-  <si>
-    <t>Из какого бразильского клуба перешёл новичок Зенита Луис Энрике?</t>
-  </si>
-  <si>
-    <t>Ботафого</t>
-  </si>
-  <si>
-    <t>Брагантино</t>
-  </si>
-  <si>
-    <t>Крисиума</t>
-  </si>
-  <si>
-    <t>Гремио</t>
-  </si>
-  <si>
     <t>С каким счётом завершилась последняя встреча Зенита и ЦСКА?</t>
   </si>
   <si>
@@ -4846,6 +4741,279 @@
   </si>
   <si>
     <t>Зенит 3:0 Спартак</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>zs_vega</t>
+  </si>
+  <si>
+    <t>21-летний (01.01.2004) аргентинский левый защитник. Перешёл в Зенит в июле 2025 из «Архентинос Хуниорс»</t>
+  </si>
+  <si>
+    <t>Роман Вега</t>
+  </si>
+  <si>
+    <t>zs_gerson</t>
+  </si>
+  <si>
+    <t>28-летний (20.05.1997) бразильский полузащитник. Перешёл в Зенит в июле 2025 из «Фламенго»</t>
+  </si>
+  <si>
+    <t>Жерсон</t>
+  </si>
+  <si>
+    <t>Вилмар Барриос</t>
+  </si>
+  <si>
+    <t>Угадай футболиста по его трансферному пути</t>
+  </si>
+  <si>
+    <t>tp_kerzakov</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>На каком месте Зенит финишировал в РПЛ-2024/25?</t>
+  </si>
+  <si>
+    <t>31-летний (22.03.1994) бразильский левый защитник. Перешёл в Зенит летом 2019 из «Гамбурга»</t>
+  </si>
+  <si>
+    <t>zs_mostovoy</t>
+  </si>
+  <si>
+    <t>27-летний (05.11.1997) российский полузащитник. Перешёл в Зенит в феврале 2019 из «Химок»</t>
+  </si>
+  <si>
+    <t>zs_henrique</t>
+  </si>
+  <si>
+    <t>24-летний (02.01.2001) бразильский вингер. Перешёл в Зенит 20.01.2025 из «Ботафого»</t>
+  </si>
+  <si>
+    <t>cska_fabio</t>
+  </si>
+  <si>
+    <t>Фабио Челестини</t>
+  </si>
+  <si>
+    <t>cska_krugovoy</t>
+  </si>
+  <si>
+    <t>27-летний (28.05.1998) российский левый защитник. Воспитанник «Зенита», но летом 2024 был куплен ЦСКА за ~€2 млн</t>
+  </si>
+  <si>
+    <t>Андрей Савинов</t>
+  </si>
+  <si>
+    <t>cska_kislyak</t>
+  </si>
+  <si>
+    <t>19-летний (09.01.2006) российский атакующий полузащитник. Дебютировал за основную команду весной 2025 после яркой игры в ЮФЛ</t>
+  </si>
+  <si>
+    <t>Егор Ушаков</t>
+  </si>
+  <si>
+    <t>Матвей Лукин</t>
+  </si>
+  <si>
+    <t>cska_alves</t>
+  </si>
+  <si>
+    <t>20-летний (05.03.2005) бразильский атак. полузащитник. Подписан 10 июля 2025 у «Сан-Паулу» за €6 млн, контракт до 2030</t>
+  </si>
+  <si>
+    <t>Матеус Алвес</t>
+  </si>
+  <si>
+    <t>Кельвен</t>
+  </si>
+  <si>
+    <t>Родриго Вильягра</t>
+  </si>
+  <si>
+    <t>cska_alerrandro</t>
+  </si>
+  <si>
+    <t>25-летний (12.01.2000) бразильский центрфорвард. Присоединился 17 февраля 2025 из «Брагантино» за €4,2 млн</t>
+  </si>
+  <si>
+    <t>Алеррандро</t>
+  </si>
+  <si>
+    <t>Амирхоссейн Рейванди</t>
+  </si>
+  <si>
+    <t>Как зовут этого знаменитого игрока ЦСКА?</t>
+  </si>
+  <si>
+    <t>cska_honda</t>
+  </si>
+  <si>
+    <t>Кэйсукэ Хонда выступал за ЦСКА с 2010 по 2013 год</t>
+  </si>
+  <si>
+    <t>Кэйсукэ Хонда</t>
+  </si>
+  <si>
+    <t>Джанер Эркин</t>
+  </si>
+  <si>
+    <t>Давид Янчик</t>
+  </si>
+  <si>
+    <t>Секу Олисе</t>
+  </si>
+  <si>
+    <t>Хорхе Карраскаль</t>
+  </si>
+  <si>
+    <t>Соломон Рондон</t>
+  </si>
+  <si>
+    <t>Кто из бывших игроков ЦСКА сейчас входит в тренерский штаб Фабио Челестини?</t>
+  </si>
+  <si>
+    <t>В тренерский штаб Фабио Челестини вошёл Алексей Березуцкий</t>
+  </si>
+  <si>
+    <t>Алексей Березуцкий</t>
+  </si>
+  <si>
+    <t>Игорь Семшов</t>
+  </si>
+  <si>
+    <t>Правда, что главный тренер ЦСКА играл на ЧЕ-2004?</t>
+  </si>
+  <si>
+    <t>Кто являтся текущим капитаном ЦСКА?</t>
+  </si>
+  <si>
+    <t>39-летний (08.04.1986) российский вратарь. Воспитанник ЦСКА, дебютировал в 2003 году и с тех пор клуб не покидал</t>
+  </si>
+  <si>
+    <t>cska_mojzes</t>
+  </si>
+  <si>
+    <t>Сколько раз ЦСКА выигрывал Суперкубок России?</t>
+  </si>
+  <si>
+    <t>2001/02,  2004/05,  2005/06,  2007/08,  2008/09,  2010/11,  2012/13,  2022/23, 2024/25</t>
+  </si>
+  <si>
+    <t>pic_cuprus</t>
+  </si>
+  <si>
+    <t>Кто был капитаном ЦСКА до Сергея Игнашевича и Игоря Акинфеева?</t>
+  </si>
+  <si>
+    <t>Сергей Семак стал капитаном ЦСКА в 1995 году в возрасте 19 лет</t>
+  </si>
+  <si>
+    <t>Василий Березуцкий</t>
+  </si>
+  <si>
+    <t>Милош Красич</t>
+  </si>
+  <si>
+    <t>С каким клубом главный тренер ЦСКА выиграл чемпионат и кубок своей страны в 2025 году?</t>
+  </si>
+  <si>
+    <t>Перед приходом в ЦСКА летом 2025 года Фабио Челестини выиграл золотой дубль с «Базелем»</t>
+  </si>
+  <si>
+    <t>Базель</t>
+  </si>
+  <si>
+    <t>Сьон</t>
+  </si>
+  <si>
+    <t>Люцерн</t>
+  </si>
+  <si>
+    <t>Лугано</t>
+  </si>
+  <si>
+    <t>Лозанна</t>
+  </si>
+  <si>
+    <t>В какой турецкий клуб перешёл нападающий Аббосбек Файзуллаев из ЦСКА?</t>
+  </si>
+  <si>
+    <t>cska_fayzullaev</t>
+  </si>
+  <si>
+    <t>Башакшехир</t>
+  </si>
+  <si>
+    <t>Фенербахче</t>
+  </si>
+  <si>
+    <t>Галатасарай</t>
+  </si>
+  <si>
+    <t>Бешикташ</t>
+  </si>
+  <si>
+    <t>Трабзонспор</t>
+  </si>
+  <si>
+    <t>Антальяспор</t>
+  </si>
+  <si>
+    <t>Последний матч между командами был сыгран в рамках Кубка России. Дошло до серии пенальти. Кто из игроков Зенита промахнулся с точки первым же ударом?</t>
+  </si>
+  <si>
+    <t>zs_gondou</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:0 Зенит (М. Кисляк 37', Т. Мусаев 90+2') (4:3 пен)</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:0 Зенит</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:1 Зенит</t>
+  </si>
+  <si>
+    <t>ЦСКА 1:0 Зенит</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:2 Зенит</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:3 Зенит</t>
+  </si>
+  <si>
+    <t>ЦСКА 0:0 Зенит</t>
+  </si>
+  <si>
+    <t>С лета 2025 года по настоящее время</t>
+  </si>
+  <si>
+    <t>2 гола в 2 матчах</t>
+  </si>
+  <si>
+    <t>4 тур. 09.08.2025. 20:30</t>
+  </si>
+  <si>
+    <t>4 тур. 09.08.2025. 15:45</t>
+  </si>
+  <si>
+    <t>logo_akmat</t>
+  </si>
+  <si>
+    <t>Рубин 2:2 Зенит (В. Ходжа 47', М. Даку 90' - А. Мостовой 11' (пен), М. Кассьера 36')</t>
+  </si>
+  <si>
+    <t>ЦСКА 2:1 Ахмат (Д. Круговой 45+2', 45+3' - Б. Мансилья 15')</t>
+  </si>
+  <si>
+    <t>На каком месте ЦСКА финишировал в РПЛ-2024/25?</t>
   </si>
 </sst>
 </file>
@@ -4915,7 +5083,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4940,6 +5108,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5244,10 +5415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5442,7 @@
     <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5324,295 +5495,298 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1504</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1512</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1515</v>
+        <v>1587</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1588</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1514</v>
+        <v>1587</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1512</v>
+        <v>260</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>1516</v>
+        <v>394</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>20</v>
@@ -5630,360 +5804,372 @@
         <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>260</v>
+        <v>1589</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+        <v>262</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1518</v>
+        <v>1590</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1591</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1517</v>
+        <v>1590</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1519</v>
+        <v>264</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1520</v>
+        <v>747</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>1108</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>828</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="J13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="N13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="P13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>371</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1529</v>
+        <v>1653</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>1655</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>114</v>
+        <v>1655</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>101</v>
@@ -5992,57 +6178,57 @@
         <v>102</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="N14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="P14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>369</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1527</v>
+        <v>1654</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>95</v>
@@ -6051,125 +6237,125 @@
         <v>96</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>116</v>
+        <v>1655</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>1499</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1530</v>
+        <v>1656</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>117</v>
+        <v>347</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>95</v>
+        <v>343</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>96</v>
+        <v>344</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>241</v>
+        <v>1038</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1507</v>
+        <v>116</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>1509</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -6180,22 +6366,22 @@
         <v>112</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1524</v>
+        <v>1652</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>726</v>
+        <v>1587</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>726</v>
+        <v>1587</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>754</v>
+        <v>1590</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>723</v>
@@ -6204,16 +6390,16 @@
         <v>724</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>1514</v>
+        <v>726</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>1512</v>
+        <v>263</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>1521</v>
+        <v>1599</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>1513</v>
+        <v>1601</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>727</v>
@@ -6222,272 +6408,268 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1500</v>
+    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1531</v>
+        <v>321</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1501</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>1585</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1532</v>
+        <v>1651</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>112</v>
+        <v>1585</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>145</v>
+        <v>1586</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>144</v>
+        <v>313</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>143</v>
+        <v>315</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>320</v>
+      <c r="B21" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1514</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>320</v>
+        <v>1644</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1514</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>322</v>
+        <v>1645</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>323</v>
+        <v>1646</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>324</v>
+        <v>1647</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>325</v>
+        <v>1648</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>326</v>
+        <v>1649</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1547</v>
+        <v>283</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1535</v>
-      </c>
+        <v>1514</v>
+      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1514</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -6495,485 +6677,898 @@
         <v>283</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>1549</v>
+        <v>1514</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="7" t="s">
-        <v>1549</v>
+      <c r="E24" s="4" t="s">
+        <v>1513</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>1549</v>
+        <v>1514</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="7" t="s">
-        <v>1549</v>
+      <c r="E25" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4" t="s">
-        <v>1548</v>
+        <v>402</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>1511</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>303</v>
+        <v>412</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>1549</v>
+        <v>1514</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>304</v>
+      <c r="E27" s="7" t="s">
+        <v>1510</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>305</v>
+        <v>414</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>306</v>
+        <v>407</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>1534</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
+      <c r="B31" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G35" s="4">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="4">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="4">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35" s="4">
+        <v>4</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="O35" s="4">
+        <v>8</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="7" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="B37" s="5" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>1544</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>1545</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="B38" s="5" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E28" r:id="rId1"/>
-    <hyperlink ref="E29" r:id="rId2"/>
-    <hyperlink ref="C23" r:id="rId3"/>
-    <hyperlink ref="E26" r:id="rId4" display="https://amaranth64.github.io/RPL_V2/matchday/mt_zenit_cska_quest.jpg"/>
-    <hyperlink ref="C24" r:id="rId5"/>
-    <hyperlink ref="C25" r:id="rId6"/>
-    <hyperlink ref="C26" r:id="rId7"/>
-    <hyperlink ref="C27" r:id="rId8"/>
-    <hyperlink ref="C29" r:id="rId9"/>
-    <hyperlink ref="E23" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="E25" r:id="rId12"/>
+    <hyperlink ref="C39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15984,19 +16579,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1581</v>
+        <v>1546</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1550</v>
+        <v>1515</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1581</v>
+        <v>1546</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1582</v>
+        <v>1547</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
@@ -16008,7 +16603,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1583</v>
+        <v>1548</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>20</v>
@@ -16020,13 +16615,13 @@
         <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1584</v>
+        <v>1549</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1585</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16037,19 +16632,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>1502</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1504</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
@@ -16090,13 +16685,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -16143,19 +16738,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1507</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1509</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
@@ -16185,7 +16780,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16196,19 +16791,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1554</v>
+        <v>1519</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1555</v>
+        <v>1520</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
@@ -16249,19 +16844,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1556</v>
+        <v>1521</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1556</v>
+        <v>1521</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1551</v>
+        <v>1516</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
@@ -16291,7 +16886,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1557</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16302,19 +16897,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1558</v>
+        <v>1523</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1559</v>
+        <v>1524</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1558</v>
+        <v>1523</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1560</v>
+        <v>1525</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
@@ -16338,7 +16933,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1552</v>
+        <v>1517</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>20</v>
@@ -16358,7 +16953,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1586</v>
+        <v>1551</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>116</v>
@@ -16411,7 +17006,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1587</v>
+        <v>1552</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>110</v>
@@ -16464,7 +17059,7 @@
         <v>103</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1588</v>
+        <v>1553</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>99</v>
@@ -16517,7 +17112,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1589</v>
+        <v>1554</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>105</v>
@@ -16570,7 +17165,7 @@
         <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1563</v>
+        <v>1528</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>1156</v>
@@ -16594,16 +17189,16 @@
         <v>1166</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1567</v>
+        <v>1532</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>1158</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>1566</v>
+        <v>1531</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>1565</v>
+        <v>1530</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>1163</v>
@@ -16623,7 +17218,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1564</v>
+        <v>1529</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>569</v>
@@ -16670,13 +17265,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1572</v>
+        <v>1537</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1568</v>
+        <v>1533</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>116</v>
@@ -16723,13 +17318,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1561</v>
+        <v>1526</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1569</v>
+        <v>1534</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>97</v>
@@ -16882,52 +17477,52 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1571</v>
+        <v>1536</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1573</v>
+        <v>1538</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1574</v>
+        <v>1539</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1575</v>
+        <v>1540</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1576</v>
+        <v>1541</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1577</v>
+        <v>1542</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>1578</v>
+        <v>1543</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>1579</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -16935,10 +17530,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7" t="s">
@@ -16986,14 +17581,14 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>
@@ -17037,13 +17632,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
       <c r="E23" t="s">
-        <v>1570</v>
+        <v>1535</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
@@ -17233,19 +17828,19 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1581</v>
+        <v>1546</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1550</v>
+        <v>1515</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1581</v>
+        <v>1546</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>1582</v>
+        <v>1547</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>20</v>
@@ -17257,7 +17852,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>1583</v>
+        <v>1548</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>20</v>
@@ -17269,13 +17864,13 @@
         <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1584</v>
+        <v>1549</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>1585</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17286,19 +17881,19 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>1502</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1504</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
@@ -17339,13 +17934,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -17392,19 +17987,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>1507</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1509</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>20</v>
@@ -17434,7 +18029,7 @@
         <v>20</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17445,19 +18040,19 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1554</v>
+        <v>1519</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>1555</v>
+        <v>1520</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
@@ -17498,19 +18093,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1556</v>
+        <v>1521</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1556</v>
+        <v>1521</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1551</v>
+        <v>1516</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>20</v>
@@ -17540,7 +18135,7 @@
         <v>20</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1557</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17551,19 +18146,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1558</v>
+        <v>1523</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1559</v>
+        <v>1524</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1558</v>
+        <v>1523</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>1560</v>
+        <v>1525</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
@@ -17587,7 +18182,7 @@
         <v>20</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1552</v>
+        <v>1517</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>20</v>
@@ -17607,7 +18202,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1586</v>
+        <v>1551</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>116</v>
@@ -17660,7 +18255,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1587</v>
+        <v>1552</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>110</v>
@@ -17713,7 +18308,7 @@
         <v>103</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1588</v>
+        <v>1553</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>99</v>
@@ -17766,7 +18361,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1589</v>
+        <v>1554</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>105</v>
@@ -17819,7 +18414,7 @@
         <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1594</v>
+        <v>1559</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>330</v>
@@ -17831,10 +18426,10 @@
         <v>241</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>1507</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1509</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>334</v>
@@ -17872,7 +18467,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1595</v>
+        <v>1560</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>569</v>
@@ -17919,13 +18514,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1590</v>
+        <v>1555</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1592</v>
+        <v>1557</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>103</v>
@@ -17972,13 +18567,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1591</v>
+        <v>1556</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1569</v>
+        <v>1534</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>97</v>
@@ -18131,52 +18726,52 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1596</v>
+        <v>1561</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1597</v>
+        <v>1562</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>1597</v>
+        <v>1562</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>1602</v>
+        <v>1567</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>1601</v>
+        <v>1566</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>1600</v>
+        <v>1565</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>1599</v>
+        <v>1564</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>1598</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -18184,14 +18779,14 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
@@ -18235,13 +18830,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="E22" t="s">
-        <v>1570</v>
+        <v>1535</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>20</v>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -5272,8 +5272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6329,8 +6329,8 @@
       <c r="D20" s="4" t="s">
         <v>1596</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>1470</v>
+      <c r="E20" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
@@ -7218,8 +7218,8 @@
       <c r="B37" s="5" t="s">
         <v>1595</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>1470</v>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>1596</v>
@@ -26227,8 +26227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -9,34 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
-    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId2"/>
-    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId3"/>
-    <sheet name="mt_krasnodar_zenit" sheetId="4" r:id="rId4"/>
-    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId5"/>
-    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId6"/>
-    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId7"/>
-    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId8"/>
-    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId9"/>
-    <sheet name="mt_itogi" sheetId="10" r:id="rId10"/>
-    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId11"/>
-    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId12"/>
-    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId13"/>
-    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId14"/>
-    <sheet name="mt_spartak_zenit" sheetId="16" r:id="rId15"/>
-    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId16"/>
-    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId17"/>
-    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId18"/>
+    <sheet name="mt_loko_spartak" sheetId="22" r:id="rId2"/>
+    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId3"/>
+    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId4"/>
+    <sheet name="mt_krasnodar_zenit" sheetId="4" r:id="rId5"/>
+    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId6"/>
+    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId7"/>
+    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId8"/>
+    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId9"/>
+    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId10"/>
+    <sheet name="mt_itogi" sheetId="10" r:id="rId11"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId12"/>
+    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId13"/>
+    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId14"/>
+    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId15"/>
+    <sheet name="mt_spartak_zenit" sheetId="16" r:id="rId16"/>
+    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId17"/>
+    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId18"/>
+    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7918" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8710" uniqueCount="1728">
   <si>
     <t>type</t>
   </si>
@@ -4869,6 +4870,357 @@
   </si>
   <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/cska_rondon.jpg</t>
+  </si>
+  <si>
+    <t>За Спартак играло 11 олимпийских чемпионов из СССР. И один игрок из другой страны. Кто?</t>
+  </si>
+  <si>
+    <t>Клементе Родригес</t>
+  </si>
+  <si>
+    <t>Как называется домашний стадион Спартака?</t>
+  </si>
+  <si>
+    <t>Ранее Открытие Арена, построен в 2014 году, вместимость 45496 мест</t>
+  </si>
+  <si>
+    <t>Лужники</t>
+  </si>
+  <si>
+    <t>Петровский</t>
+  </si>
+  <si>
+    <t>Фишт</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром в истории Спартака?</t>
+  </si>
+  <si>
+    <t>У Никиты Симоняна 162 гола за Спартак</t>
+  </si>
+  <si>
+    <t>spartak_simonyan</t>
+  </si>
+  <si>
+    <t>Никита Симонян</t>
+  </si>
+  <si>
+    <t>Фёдор Черенков</t>
+  </si>
+  <si>
+    <t>Егор Титов</t>
+  </si>
+  <si>
+    <t>Сергей Родионов</t>
+  </si>
+  <si>
+    <t>Кто является рекордсменом Спартака по количеству матчей в красно-белой футболке?</t>
+  </si>
+  <si>
+    <t>У Фёдора Черенкова 514 матча за Спартак!</t>
+  </si>
+  <si>
+    <t>spartak_cherenkov</t>
+  </si>
+  <si>
+    <t>Игорь Нетто</t>
+  </si>
+  <si>
+    <t>Александр Беленов</t>
+  </si>
+  <si>
+    <t>Андрей Ещенко</t>
+  </si>
+  <si>
+    <t>Под каким номером играет капитан Спартака Роман Зобнин?</t>
+  </si>
+  <si>
+    <t>spartak_zobnin</t>
+  </si>
+  <si>
+    <t>Под каким номером играет вице-капитан Спартака Александр Максименко?</t>
+  </si>
+  <si>
+    <t>spartak_maksimenko</t>
+  </si>
+  <si>
+    <t>Выходил ли когда-нибудь Спартак в финал Еврокубка?</t>
+  </si>
+  <si>
+    <t>К сожалению, самая высокая стадия до которой добирался Спартак - это получинал (КЕЧ, Кубок УЕФА, Кубок обладателей кубков)</t>
+  </si>
+  <si>
+    <t>С этим суперклубом у Спартака абсолютно равный баланс: три победы - три поражения. Даже разница мячей 7:7</t>
+  </si>
+  <si>
+    <t>logo_real_madrid</t>
+  </si>
+  <si>
+    <t>Реал Мадрид</t>
+  </si>
+  <si>
+    <t>Бавария</t>
+  </si>
+  <si>
+    <t>Манчестер Юнайтед</t>
+  </si>
+  <si>
+    <t>Интер</t>
+  </si>
+  <si>
+    <t>Марсель</t>
+  </si>
+  <si>
+    <t>Кто приехал играть со Спартаком в прощальном матче Федора Черенкова?</t>
+  </si>
+  <si>
+    <t>Парма</t>
+  </si>
+  <si>
+    <t>Валенсия</t>
+  </si>
+  <si>
+    <t>Сельта</t>
+  </si>
+  <si>
+    <t>Реал Сосьедад</t>
+  </si>
+  <si>
+    <t>ПСЖ</t>
+  </si>
+  <si>
+    <t>Правда, что Спартак выиграл последний Чемпионат СССР?</t>
+  </si>
+  <si>
+    <t>Кто стал первым легионером (не из стран СНГ) в истории Спартака?</t>
+  </si>
+  <si>
+    <t>Фернандо</t>
+  </si>
+  <si>
+    <t>spartak_mangas</t>
+  </si>
+  <si>
+    <t>27-летний (19.03.1998) португальский левый защитник. Пришёл 10 сентября 2024 из «Боавишты»</t>
+  </si>
+  <si>
+    <t>Рикардо Мангас</t>
+  </si>
+  <si>
+    <t>spartak_marquinhos</t>
+  </si>
+  <si>
+    <t>22-летний (07.04.2003) бразильский левый вингер. Куплен 30 июня 2024 у «Ференцвароша» за €5 млн</t>
+  </si>
+  <si>
+    <t>spartak_bongonda</t>
+  </si>
+  <si>
+    <t>29-летний (20.11.1995) конголезский (ДРК) вингер. Подписан 13 июля 2023 у «Кадиса» за ≈ €6 млн</t>
+  </si>
+  <si>
+    <t>spartak_garcia</t>
+  </si>
+  <si>
+    <t>27-летний (20.11.1997) тринидадский нападающий. Перешёл 7 февраля 2025 из АЕК (Афины) за €10 млн</t>
+  </si>
+  <si>
+    <t>spartak_zabolotnyi</t>
+  </si>
+  <si>
+    <t>34-летний (13.06.1991) российский центрфорвард. Подписан 1 июля 2025 после года в «Химках» (свободный агент)</t>
+  </si>
+  <si>
+    <t>Никита Массалыга</t>
+  </si>
+  <si>
+    <t>Максим Лайкин</t>
+  </si>
+  <si>
+    <t>Даниил Пруцев</t>
+  </si>
+  <si>
+    <t>Александр Довбня</t>
+  </si>
+  <si>
+    <t>loko_montes</t>
+  </si>
+  <si>
+    <t>28-летний (24.02.1997) мексиканский центральный защитник</t>
+  </si>
+  <si>
+    <t>Сесар Монтес</t>
+  </si>
+  <si>
+    <t>Николай Комличенко</t>
+  </si>
+  <si>
+    <t>loko_batrakov</t>
+  </si>
+  <si>
+    <t>22-летний (19.09.2002) российский центральный хавбек-универсал</t>
+  </si>
+  <si>
+    <t>loko_pinyaev</t>
+  </si>
+  <si>
+    <t>20-летний (02.11.2004) российский левый вингер</t>
+  </si>
+  <si>
+    <t>loko_komlichenko</t>
+  </si>
+  <si>
+    <t>29-летний (29.06.1995) российский центрфорвард</t>
+  </si>
+  <si>
+    <t>loko_vorobyov</t>
+  </si>
+  <si>
+    <t>27-летний (10.10.1997) российский форвард-универсал</t>
+  </si>
+  <si>
+    <t>Дмитрий Воробьёв</t>
+  </si>
+  <si>
+    <t>Даниил Веселов</t>
+  </si>
+  <si>
+    <t>Егор Погостнов</t>
+  </si>
+  <si>
+    <t>Сколько раз Локомотив становился чемпионом России?</t>
+  </si>
+  <si>
+    <t>Локомотив выигрывал Чемпионат России 3 раза. В 2002, 2004, 2017/18 годах.</t>
+  </si>
+  <si>
+    <t>3 раза</t>
+  </si>
+  <si>
+    <t>4 раза</t>
+  </si>
+  <si>
+    <t>5 раз</t>
+  </si>
+  <si>
+    <t>2 раза</t>
+  </si>
+  <si>
+    <t>1 раз</t>
+  </si>
+  <si>
+    <t>6 раз</t>
+  </si>
+  <si>
+    <t>В каком году был основан Локомотив?</t>
+  </si>
+  <si>
+    <t>Локомотив Москва был основан в 1922 году</t>
+  </si>
+  <si>
+    <t>Как называется стадион на котором Локомотив проводит домашние матчи?</t>
+  </si>
+  <si>
+    <t>std_rzd</t>
+  </si>
+  <si>
+    <t>Открыт 5 июля 2002 года, вместимость 27 320 мест</t>
+  </si>
+  <si>
+    <t>Локомотив Арена</t>
+  </si>
+  <si>
+    <t>Арена Химки</t>
+  </si>
+  <si>
+    <t>Железнодорожный стадион</t>
+  </si>
+  <si>
+    <t>Стадион им. Лоськова</t>
+  </si>
+  <si>
+    <t>Кто провел больше всех матчей за Локомотив среди легионеров?</t>
+  </si>
+  <si>
+    <t>334 матча</t>
+  </si>
+  <si>
+    <t>Сергей Гуренко</t>
+  </si>
+  <si>
+    <t>Заза Джанашия</t>
+  </si>
+  <si>
+    <t>Майкон</t>
+  </si>
+  <si>
+    <t>Мануэл Фернандеш</t>
+  </si>
+  <si>
+    <t>Борис Ротенберг</t>
+  </si>
+  <si>
+    <t>Правда ли, что Локомотив единственный клуб, который ниразу не вылетал из высшего дивизиона России/СССР?</t>
+  </si>
+  <si>
+    <t>Последний вылет Локомотива датируется 1989 годом</t>
+  </si>
+  <si>
+    <t>Кто является самым возрастным игроком Локомотива на данный момент?</t>
+  </si>
+  <si>
+    <t>Артём Тимофеев</t>
+  </si>
+  <si>
+    <t>С каким счётом завершилась последняя встреча Спартака и Локомотива?</t>
+  </si>
+  <si>
+    <t>На каком месте Локомотив финишировал в РПЛ-2024/25?</t>
+  </si>
+  <si>
+    <t>На каком месте Спартак финишировал в РПЛ-2024/25?</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_loko_spartak_quest.jpg</t>
+  </si>
+  <si>
+    <t>5 тур. 16.08.2025. 15:00</t>
+  </si>
+  <si>
+    <t>5 тур. 16.08.2025. 17:30</t>
+  </si>
+  <si>
+    <t>Пари НН 2:3 Локомотив (В. Грулёв 60', Т. Весино 71' - Д. Воробьев 29', А. Батраков 59', С. Пиняев 62')</t>
+  </si>
+  <si>
+    <t>Акрон 1:1 Спартак (А. Дзюба 90+4' - П. Солари 90+2')</t>
+  </si>
+  <si>
+    <t>3 гола в 3 матчах</t>
+  </si>
+  <si>
+    <t>loko_bakaev</t>
+  </si>
+  <si>
+    <t>loko_barinov</t>
+  </si>
+  <si>
+    <t>Спартак 1:2 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 2:2 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 2:1 Локомотив</t>
+  </si>
+  <si>
+    <t>Спартак 2:0 Локомотив (М. Угальде 10', 21', 34', 73'; Э. Барко 80' - С. Пиняев 55', Ж. Ньямси 63')</t>
+  </si>
+  <si>
+    <t>57 очков</t>
+  </si>
+  <si>
+    <t>53 очка</t>
   </si>
 </sst>
 </file>
@@ -5272,8 +5624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="A1:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7324,6 +7676,2324 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="93" customWidth="1"/>
+    <col min="3" max="3" width="82" customWidth="1"/>
+    <col min="5" max="5" width="82" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="24" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2003</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2004</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="2">
+        <v>2005</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="2">
+        <v>2006</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -8511,7 +11181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -10497,7 +13167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -12082,7 +14752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -13868,7 +16538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -15117,7 +17787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -16318,74 +18988,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
@@ -16522,11 +19124,2790 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="154.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1628</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4">
+        <v>33</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4">
+        <v>15</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4">
+        <v>8</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4">
+        <v>98</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4">
+        <v>99</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4">
+        <v>35</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4">
+        <v>40</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>1652</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1922</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1913</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1925</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4">
+        <v>1937</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4">
+        <v>1903</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>522</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>522</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>1</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" t="s">
+        <v>1671</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E43" r:id="rId3"/>
+    <hyperlink ref="C46" r:id="rId4"/>
+    <hyperlink ref="E46" r:id="rId5"/>
+    <hyperlink ref="C47" r:id="rId6"/>
+    <hyperlink ref="E47" r:id="rId7"/>
+    <hyperlink ref="E48" r:id="rId8"/>
+    <hyperlink ref="E49" r:id="rId9"/>
+    <hyperlink ref="C42" r:id="rId10"/>
+    <hyperlink ref="C43" r:id="rId11"/>
+    <hyperlink ref="C48" r:id="rId12"/>
+    <hyperlink ref="C49" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18254,11 +23635,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20381,7 +25762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
@@ -22466,7 +27847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -24373,7 +29754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -26223,7 +31604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -27969,7 +33350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
@@ -30025,2322 +35406,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="93" customWidth="1"/>
-    <col min="3" max="3" width="82" customWidth="1"/>
-    <col min="5" max="5" width="82" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>6</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>1248</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>1252</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2008</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="2">
-        <v>2003</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2">
-        <v>2004</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="2">
-        <v>2005</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="2">
-        <v>2006</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1"/>
-    <hyperlink ref="E12" r:id="rId2"/>
-    <hyperlink ref="C13" r:id="rId3"/>
-    <hyperlink ref="E13" r:id="rId4"/>
-    <hyperlink ref="E16" r:id="rId5"/>
-    <hyperlink ref="C22" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
-    <hyperlink ref="C23" r:id="rId8"/>
-    <hyperlink ref="E23" r:id="rId9"/>
-    <hyperlink ref="C24" r:id="rId10"/>
-    <hyperlink ref="E24" r:id="rId11"/>
-    <hyperlink ref="C25" r:id="rId12"/>
-    <hyperlink ref="C28" r:id="rId13"/>
-    <hyperlink ref="E28" r:id="rId14"/>
-    <hyperlink ref="C29" r:id="rId15"/>
-    <hyperlink ref="C30" r:id="rId16"/>
-    <hyperlink ref="E30" r:id="rId17"/>
-    <hyperlink ref="C31" r:id="rId18"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -19196,8 +19196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19870,13 +19870,13 @@
         <v>1716</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>105</v>
@@ -19938,10 +19938,10 @@
         <v>334</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>95</v>
@@ -19956,10 +19956,10 @@
         <v>331</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>498</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8710" uniqueCount="1728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8648" uniqueCount="1728">
   <si>
     <t>type</t>
   </si>
@@ -19194,10 +19194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21380,8 +21380,8 @@
         <v>1714</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>1344</v>
+      <c r="E42" s="7" t="s">
+        <v>1714</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
@@ -21473,108 +21473,104 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>470</v>
+        <v>828</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>1368</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>470</v>
+        <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>471</v>
+        <v>581</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>809</v>
+        <v>20</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>810</v>
+        <v>587</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>811</v>
+        <v>20</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>386</v>
+        <v>1369</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>812</v>
+        <v>20</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>378</v>
+        <v>1034</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>813</v>
+        <v>20</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>814</v>
+        <v>588</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>815</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>816</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>938</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
+        <v>1372</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>920</v>
+        <v>20</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>902</v>
+        <v>1373</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>54</v>
+        <v>1374</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>901</v>
+        <v>20</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>49</v>
+        <v>1375</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>921</v>
+        <v>20</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>59</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -21582,50 +21578,50 @@
         <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>1368</v>
+        <v>1392</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>1714</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>1368</v>
+        <v>1393</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>581</v>
+        <v>74</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>587</v>
+        <v>1394</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>1034</v>
+        <v>590</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>588</v>
+        <v>371</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>1370</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -21633,254 +21629,50 @@
         <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>1371</v>
+        <v>1392</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>1714</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
-        <v>1371</v>
+        <v>1396</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>1372</v>
+        <v>1397</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I47" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="2" t="s">
-        <v>1375</v>
-      </c>
       <c r="P47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="s">
-        <v>1393</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>1395</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>1398</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>5</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O51" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -21888,16 +21680,17 @@
     <hyperlink ref="C19" r:id="rId1"/>
     <hyperlink ref="E19" r:id="rId2"/>
     <hyperlink ref="E43" r:id="rId3"/>
-    <hyperlink ref="C46" r:id="rId4"/>
-    <hyperlink ref="E46" r:id="rId5"/>
-    <hyperlink ref="C47" r:id="rId6"/>
-    <hyperlink ref="E47" r:id="rId7"/>
-    <hyperlink ref="E48" r:id="rId8"/>
-    <hyperlink ref="E49" r:id="rId9"/>
+    <hyperlink ref="C44" r:id="rId4"/>
+    <hyperlink ref="E44" r:id="rId5"/>
+    <hyperlink ref="C45" r:id="rId6"/>
+    <hyperlink ref="E45" r:id="rId7"/>
+    <hyperlink ref="E46" r:id="rId8"/>
+    <hyperlink ref="E47" r:id="rId9"/>
     <hyperlink ref="C42" r:id="rId10"/>
     <hyperlink ref="C43" r:id="rId11"/>
-    <hyperlink ref="C48" r:id="rId12"/>
-    <hyperlink ref="C49" r:id="rId13"/>
+    <hyperlink ref="C46" r:id="rId12"/>
+    <hyperlink ref="C47" r:id="rId13"/>
+    <hyperlink ref="E42" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9028" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9038" uniqueCount="1830">
   <si>
     <t>type</t>
   </si>
@@ -4572,9 +4572,6 @@
     <t>Рубин 2:1 Спартак (М. Даку 8', 28' - Э. Барко 42')</t>
   </si>
   <si>
-    <t>43 очка</t>
-  </si>
-  <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_zenit_quest.jpg</t>
   </si>
   <si>
@@ -5515,6 +5512,21 @@
   </si>
   <si>
     <t>Промес</t>
+  </si>
+  <si>
+    <t>11 место</t>
+  </si>
+  <si>
+    <t>4 очка</t>
+  </si>
+  <si>
+    <t>5 очков</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -6018,25 +6030,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>1516</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1517</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>20</v>
@@ -6071,25 +6083,25 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>1519</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1520</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>20</v>
@@ -6119,12 +6131,12 @@
         <v>20</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>17</v>
@@ -6133,7 +6145,7 @@
         <v>337</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>337</v>
@@ -6160,13 +6172,13 @@
         <v>20</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>1520</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>1521</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>20</v>
@@ -6177,19 +6189,19 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>1528</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>20</v>
@@ -6230,19 +6242,19 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1530</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>20</v>
@@ -6272,13 +6284,13 @@
         <v>20</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6289,13 +6301,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D7" t="s">
         <v>1533</v>
       </c>
-      <c r="D7" t="s">
-        <v>1534</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
@@ -6325,7 +6337,7 @@
         <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>20</v>
@@ -6345,13 +6357,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D8" t="s">
         <v>1536</v>
       </c>
-      <c r="D8" t="s">
-        <v>1537</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -6375,19 +6387,19 @@
         <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>1538</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>1539</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -6401,19 +6413,19 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D9" t="s">
         <v>1540</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>1541</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1542</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>20</v>
@@ -6431,7 +6443,7 @@
         <v>20</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>20</v>
@@ -6443,7 +6455,7 @@
         <v>20</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -6457,19 +6469,19 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D10" t="s">
         <v>1545</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>1546</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1547</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>20</v>
@@ -6481,13 +6493,13 @@
         <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>20</v>
@@ -6499,7 +6511,7 @@
         <v>20</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -6622,7 +6634,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>110</v>
@@ -6675,7 +6687,7 @@
         <v>112</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>116</v>
@@ -6728,7 +6740,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>116</v>
@@ -6781,7 +6793,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>110</v>
@@ -6834,19 +6846,19 @@
         <v>112</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>257</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>261</v>
@@ -6864,13 +6876,13 @@
         <v>260</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>269</v>
@@ -6937,19 +6949,19 @@
         <v>301</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>1531</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1532</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>20</v>
@@ -6993,7 +7005,7 @@
         <v>1470</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>112</v>
@@ -7002,37 +7014,37 @@
         <v>20</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>1587</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>1588</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>1591</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -7047,7 +7059,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="7" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
@@ -7345,13 +7357,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>1522</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>1523</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
@@ -7396,10 +7408,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>1525</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>103</v>
@@ -7447,13 +7459,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>1522</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>1523</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
@@ -7501,52 +7513,52 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>1549</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>1551</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>1552</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>1557</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -7557,13 +7569,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>112</v>
@@ -7572,7 +7584,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>20</v>
@@ -7596,7 +7608,7 @@
         <v>20</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>20</v>
@@ -7613,14 +7625,14 @@
         <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
@@ -7667,16 +7679,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>1563</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1564</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>1565</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>560</v>
@@ -7720,13 +7732,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>310</v>
@@ -7747,13 +7759,13 @@
         <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>1567</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>1568</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>1569</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>20</v>
@@ -7776,46 +7788,46 @@
         <v>1</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>1571</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>1572</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>1573</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>1575</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>1576</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>20</v>
@@ -7832,49 +7844,49 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="E36" s="4" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>1579</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>1580</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="L36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="N36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="4" t="s">
+      <c r="P36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4" t="s">
         <v>1583</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -7882,13 +7894,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>599</v>
@@ -7900,7 +7912,7 @@
         <v>238</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>1463</v>
@@ -7924,7 +7936,7 @@
         <v>243</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>239</v>
@@ -7932,10 +7944,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>112</v>
@@ -20446,25 +20458,25 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1644</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>1643</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>1645</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>20</v>
@@ -20499,19 +20511,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1646</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>1647</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -20523,7 +20535,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>20</v>
@@ -20552,19 +20564,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1648</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1649</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -20576,7 +20588,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
@@ -20605,19 +20617,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>1651</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -20629,7 +20641,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
@@ -20658,19 +20670,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1652</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>1653</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
@@ -20682,7 +20694,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>20</v>
@@ -20694,42 +20706,42 @@
         <v>20</v>
       </c>
       <c r="M6" s="4" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>1655</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>1656</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>1657</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>1658</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>1659</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1660</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>20</v>
@@ -20759,24 +20771,24 @@
         <v>20</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D8" t="s">
         <v>1662</v>
       </c>
-      <c r="D8" t="s">
-        <v>1663</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -20817,19 +20829,19 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D9" t="s">
         <v>1664</v>
       </c>
-      <c r="D9" t="s">
-        <v>1665</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -20870,25 +20882,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D10" t="s">
         <v>1666</v>
       </c>
-      <c r="D10" t="s">
-        <v>1667</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>20</v>
@@ -20900,7 +20912,7 @@
         <v>20</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>20</v>
@@ -20923,25 +20935,25 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D11" t="s">
         <v>1668</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>1669</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>1670</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>20</v>
@@ -20959,7 +20971,7 @@
         <v>20</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>20</v>
@@ -20971,7 +20983,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -20985,7 +20997,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>328</v>
@@ -21038,7 +21050,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>103</v>
@@ -21091,7 +21103,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>344</v>
@@ -21144,7 +21156,7 @@
         <v>97</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>101</v>
@@ -21197,43 +21209,43 @@
         <v>108</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>627</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>44</v>
@@ -21241,16 +21253,16 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>97</v>
@@ -21294,16 +21306,16 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>108</v>
@@ -21350,16 +21362,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -21377,13 +21389,13 @@
         <v>20</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>1712</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>1713</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>20</v>
@@ -21395,7 +21407,7 @@
         <v>20</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21509,13 +21521,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>868</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>868</v>
@@ -21530,7 +21542,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>20</v>
@@ -21548,13 +21560,13 @@
         <v>20</v>
       </c>
       <c r="O22" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>1606</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21562,16 +21574,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1683</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>1685</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -21583,31 +21595,31 @@
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
         <v>1686</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>1687</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>1688</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21615,13 +21627,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>108</v>
@@ -21630,7 +21642,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>20</v>
@@ -21642,13 +21654,13 @@
         <v>20</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4" t="s">
         <v>1693</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>1694</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>20</v>
@@ -21660,7 +21672,7 @@
         <v>20</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -21668,28 +21680,28 @@
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>1609</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>1611</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>1612</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>20</v>
@@ -21701,13 +21713,13 @@
         <v>20</v>
       </c>
       <c r="M25" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="4" t="s">
         <v>1613</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>1614</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>20</v>
@@ -21721,28 +21733,28 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>1617</v>
-      </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>1612</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>1613</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
@@ -21754,13 +21766,13 @@
         <v>20</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>20</v>
@@ -21793,7 +21805,7 @@
         <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>20</v>
@@ -21805,7 +21817,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>20</v>
@@ -21825,14 +21837,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1621</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>1622</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
@@ -21876,14 +21888,14 @@
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>1623</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>1624</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
@@ -21927,13 +21939,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>97</v>
@@ -21980,32 +21992,32 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>1629</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>1630</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>1631</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>20</v>
@@ -22017,13 +22029,13 @@
         <v>20</v>
       </c>
       <c r="O31" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>1632</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -22031,7 +22043,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>97</v>
@@ -22044,25 +22056,25 @@
         <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>1636</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>1637</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>1638</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>20</v>
@@ -22074,7 +22086,7 @@
         <v>20</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -22082,7 +22094,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>97</v>
@@ -22133,7 +22145,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>97</v>
@@ -22164,7 +22176,7 @@
         <v>20</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>20</v>
@@ -22176,7 +22188,7 @@
         <v>20</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22184,13 +22196,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>1673</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1674</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>108</v>
@@ -22199,37 +22211,37 @@
         <v>83</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>85</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>87</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>149</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>89</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -22237,13 +22249,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>108</v>
@@ -22379,7 +22391,7 @@
         <v>20</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>20</v>
@@ -22393,13 +22405,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>108</v>
@@ -22446,7 +22458,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>108</v>
@@ -22458,7 +22470,7 @@
         <v>20</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>20</v>
@@ -22474,7 +22486,7 @@
       </c>
       <c r="L40" s="4"/>
       <c r="M40" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>20</v>
@@ -22494,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>97</v>
@@ -22507,7 +22519,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>20</v>
@@ -22548,11 +22560,11 @@
         <v>1351</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>20</v>
@@ -22599,7 +22611,7 @@
         <v>1354</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="3" t="s">
@@ -22752,7 +22764,7 @@
         <v>1392</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
@@ -22803,7 +22815,7 @@
         <v>1392</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3" t="s">
@@ -22872,7 +22884,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22950,19 +22962,19 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1718</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>1719</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>20</v>
@@ -22986,7 +22998,7 @@
         <v>20</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>20</v>
@@ -23003,19 +23015,19 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>1719</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1720</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>1721</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>20</v>
@@ -23039,7 +23051,7 @@
         <v>20</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>20</v>
@@ -23056,19 +23068,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>1722</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>1723</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>20</v>
@@ -23080,7 +23092,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>20</v>
@@ -23092,36 +23104,36 @@
         <v>20</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>1654</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>1725</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>1726</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>20</v>
@@ -23133,7 +23145,7 @@
         <v>20</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>20</v>
@@ -23162,19 +23174,19 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>1727</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>1728</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>20</v>
@@ -23186,7 +23198,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>20</v>
@@ -23215,7 +23227,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>17</v>
@@ -23224,7 +23236,7 @@
         <v>1502</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1502</v>
@@ -23245,7 +23257,7 @@
         <v>20</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>20</v>
@@ -23263,30 +23275,30 @@
         <v>20</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>1516</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>1517</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>20</v>
@@ -23321,25 +23333,25 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>1519</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>1520</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>20</v>
@@ -23369,24 +23381,24 @@
         <v>20</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>1732</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>1733</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>20</v>
@@ -23404,7 +23416,7 @@
         <v>20</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>20</v>
@@ -23427,19 +23439,19 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>1530</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>20</v>
@@ -23469,18 +23481,18 @@
         <v>20</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>17</v>
@@ -23489,7 +23501,7 @@
         <v>319</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>319</v>
@@ -23533,7 +23545,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
@@ -23542,7 +23554,7 @@
         <v>599</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>599</v>
@@ -23586,25 +23598,25 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>1736</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>1737</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>20</v>
@@ -23622,19 +23634,19 @@
         <v>20</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>1654</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -23648,7 +23660,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>500</v>
@@ -23681,7 +23693,7 @@
         <v>328</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>501</v>
@@ -23701,7 +23713,7 @@
         <v>97</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>116</v>
@@ -23754,7 +23766,7 @@
         <v>103</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>110</v>
@@ -23807,7 +23819,7 @@
         <v>97</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>108</v>
@@ -23854,22 +23866,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>1511</v>
+        <v>1827</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>103</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>142</v>
+        <v>347</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>87</v>
@@ -23878,10 +23890,10 @@
         <v>144</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>143</v>
+        <v>1171</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>83</v>
@@ -23896,10 +23908,10 @@
         <v>145</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>149</v>
+        <v>1172</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>150</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -23907,52 +23919,52 @@
         <v>4</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1490</v>
+        <v>1826</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>83</v>
+        <v>562</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>141</v>
+        <v>1825</v>
       </c>
       <c r="H20" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>142</v>
-      </c>
       <c r="N20" s="9" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>149</v>
+        <v>1172</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>150</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -24066,22 +24078,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>1743</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>1744</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>20</v>
@@ -24093,13 +24105,13 @@
         <v>20</v>
       </c>
       <c r="K23" s="9" t="s">
+        <v>1744</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>1745</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>1746</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>20</v>
@@ -24111,7 +24123,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -24122,11 +24134,11 @@
         <v>1501</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>20</v>
@@ -24173,11 +24185,11 @@
         <v>1501</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>20</v>
@@ -24221,10 +24233,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="9" t="s">
@@ -24272,16 +24284,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>1752</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>1753</v>
-      </c>
       <c r="E27" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>20</v>
@@ -24325,13 +24337,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>1758</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>1759</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>81</v>
@@ -24340,143 +24352,149 @@
         <v>81</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>87</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>85</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="L28" s="11" t="s">
         <v>89</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>91</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>346</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B29" s="11" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="14" t="s">
         <v>1779</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="14" t="s">
+      <c r="L29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1787</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="14" t="s">
         <v>1780</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="P29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="s">
         <v>1788</v>
       </c>
-      <c r="N29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>1781</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>1789</v>
-      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="14" t="s">
+        <v>1828</v>
+      </c>
       <c r="B30" s="11" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>46</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>51</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>377</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>1476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B31" s="11" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>103</v>
@@ -24489,7 +24507,7 @@
         <v>20</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>20</v>
@@ -24513,7 +24531,7 @@
         <v>20</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>20</v>
@@ -24527,13 +24545,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>97</v>
@@ -24580,13 +24598,13 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>1768</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>1769</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>103</v>
@@ -24629,16 +24647,18 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
+      <c r="A34" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B34" s="11" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>20</v>
@@ -24650,46 +24670,48 @@
         <v>20</v>
       </c>
       <c r="I34" s="14" t="s">
+        <v>1803</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>1804</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>1805</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="N34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>1806</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="14" t="s">
+      <c r="P34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="14" t="s">
         <v>1807</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>1808</v>
-      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
+      <c r="A35" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B35" s="11" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>20</v>
@@ -24729,9 +24751,11 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
+      <c r="A36" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B36" s="11" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>103</v>
@@ -24778,15 +24802,17 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B37" s="11" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>1775</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>1776</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>103</v>
@@ -24801,19 +24827,19 @@
         <v>20</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J37" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>20</v>
@@ -24829,18 +24855,20 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="14" t="s">
+        <v>1829</v>
+      </c>
       <c r="B38" s="11" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>1777</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>1778</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>20</v>
@@ -24880,12 +24908,14 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B39" s="9" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="11" t="s">
@@ -24895,46 +24925,48 @@
         <v>20</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>1810</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>1811</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="L39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>1812</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="14" t="s">
+      <c r="N39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>1813</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="14" t="s">
         <v>1814</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>1815</v>
-      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="14" t="s">
+        <v>1513</v>
+      </c>
       <c r="B40" s="9" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="11" t="s">
@@ -24950,130 +24982,139 @@
         <v>20</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="J40" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>1816</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="14" t="s">
+      <c r="N40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>1753</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="14" t="s">
         <v>1817</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>1754</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="14" t="s">
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>1818</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>1819</v>
-      </c>
       <c r="F41" s="4" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="G41" t="s">
         <v>1473</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>391</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>377</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>1476</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
       <c r="B42" s="4" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
         <v>1786</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1787</v>
-      </c>
       <c r="H42" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I42" s="14" t="s">
+        <v>1819</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>1820</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="L42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>1821</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="14" t="s">
+      <c r="N42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>1822</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="14" t="s">
+      <c r="P42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="14" t="s">
         <v>1823</v>
       </c>
-      <c r="P42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>1824</v>
-      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
       <c r="B43" s="4" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>103</v>
@@ -25119,11 +25160,14 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1</v>
+      </c>
       <c r="B44" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>983</v>
@@ -25138,7 +25182,7 @@
         <v>20</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>20</v>
@@ -25162,12 +25206,15 @@
         <v>20</v>
       </c>
       <c r="Q44" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
       <c r="B45" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C45" t="s">
         <v>556</v>
@@ -25213,17 +25260,20 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
       <c r="B46" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C46" t="s">
         <v>556</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>46</v>
@@ -25235,7 +25285,7 @@
         <v>240</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>377</v>
@@ -25247,63 +25297,66 @@
         <v>260</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>257</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
       <c r="B47" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>1795</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>1796</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="H47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="11" t="s">
         <v>1797</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="11" t="s">
+      <c r="J47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>1798</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="11" t="s">
+      <c r="L47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="11" t="s">
         <v>1799</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="11" t="s">
+      <c r="N47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="11" t="s">
         <v>1800</v>
       </c>
-      <c r="N47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="11" t="s">
+      <c r="P47" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="11" t="s">
         <v>1801</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>1802</v>
       </c>
     </row>
   </sheetData>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -5466,9 +5466,6 @@
     <t>spartak_barco</t>
   </si>
   <si>
-    <t>spartak_medina</t>
-  </si>
-  <si>
     <t>9:1</t>
   </si>
   <si>
@@ -5527,6 +5524,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>12 мячей</t>
   </si>
 </sst>
 </file>
@@ -22884,7 +22884,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23026,9 +23026,6 @@
       <c r="D3" s="9" t="s">
         <v>1720</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>1719</v>
-      </c>
       <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
@@ -23872,7 +23869,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>103</v>
@@ -23925,7 +23922,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>97</v>
@@ -23934,7 +23931,7 @@
         <v>562</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>560</v>
@@ -24438,7 +24435,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>1763</v>
@@ -24856,7 +24853,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>1776</v>
@@ -24931,31 +24928,31 @@
         <v>20</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>1809</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>1810</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="L39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>1811</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="14" t="s">
+      <c r="N39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>1812</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="14" t="s">
         <v>1813</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -24988,13 +24985,13 @@
         <v>20</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>1815</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>1816</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>20</v>
@@ -25006,7 +25003,7 @@
         <v>20</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -25020,19 +25017,19 @@
         <v>1511</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="G41" t="s">
         <v>1473</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>391</v>
+      <c r="H41" s="9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>810</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>1726</v>
@@ -25052,11 +25049,11 @@
       <c r="O41" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="P41" s="4" t="s">
-        <v>1809</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>376</v>
+      <c r="P41" s="9" t="s">
+        <v>1719</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -25082,31 +25079,31 @@
         <v>20</v>
       </c>
       <c r="I42" s="14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>1819</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="L42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>1820</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="14" t="s">
+      <c r="N42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>1821</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="14" t="s">
+      <c r="P42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="14" t="s">
         <v>1822</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -25169,6 +25166,9 @@
       <c r="C44" s="13" t="s">
         <v>1511</v>
       </c>
+      <c r="D44" t="s">
+        <v>1829</v>
+      </c>
       <c r="E44" s="9" t="s">
         <v>983</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>20</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>20</v>
@@ -25381,12 +25381,12 @@
     <hyperlink ref="E29" r:id="rId18"/>
     <hyperlink ref="C44" r:id="rId19"/>
     <hyperlink ref="C42" r:id="rId20"/>
-    <hyperlink ref="C41" r:id="rId21"/>
-    <hyperlink ref="C40" r:id="rId22"/>
-    <hyperlink ref="C39" r:id="rId23"/>
-    <hyperlink ref="C47" r:id="rId24"/>
-    <hyperlink ref="E47" r:id="rId25"/>
-    <hyperlink ref="E42" r:id="rId26"/>
+    <hyperlink ref="C40" r:id="rId21"/>
+    <hyperlink ref="C39" r:id="rId22"/>
+    <hyperlink ref="C47" r:id="rId23"/>
+    <hyperlink ref="E47" r:id="rId24"/>
+    <hyperlink ref="E42" r:id="rId25"/>
+    <hyperlink ref="C41" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9038" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9039" uniqueCount="1829">
   <si>
     <t>type</t>
   </si>
@@ -5461,9 +5461,6 @@
   </si>
   <si>
     <t>205</t>
-  </si>
-  <si>
-    <t>spartak_barco</t>
   </si>
   <si>
     <t>9:1</t>
@@ -22884,7 +22881,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23026,6 +23023,9 @@
       <c r="D3" s="9" t="s">
         <v>1720</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>1719</v>
+      </c>
       <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
@@ -23869,7 +23869,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>103</v>
@@ -23922,7 +23922,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>97</v>
@@ -23931,7 +23931,7 @@
         <v>562</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>560</v>
@@ -24435,7 +24435,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>1763</v>
@@ -24805,7 +24805,7 @@
       <c r="B37" s="11" t="s">
         <v>1774</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="7" t="s">
         <v>1511</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -24853,7 +24853,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>1776</v>
@@ -24928,31 +24928,31 @@
         <v>20</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="L39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>1810</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="14" t="s">
+      <c r="N39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>1811</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="14" t="s">
         <v>1812</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -24985,13 +24985,13 @@
         <v>20</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>1814</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>1815</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>20</v>
@@ -25003,7 +25003,7 @@
         <v>20</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -25017,10 +25017,10 @@
         <v>1511</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G41" t="s">
         <v>1473</v>
@@ -25044,12 +25044,12 @@
         <v>1476</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>1808</v>
+        <v>1645</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>1280</v>
-      </c>
-      <c r="P41" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="P41" s="4" t="s">
         <v>1719</v>
       </c>
       <c r="Q41" s="9" t="s">
@@ -25079,31 +25079,31 @@
         <v>20</v>
       </c>
       <c r="I42" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>1818</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="14" t="s">
+      <c r="L42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="14" t="s">
         <v>1819</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" s="14" t="s">
+      <c r="N42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="14" t="s">
         <v>1820</v>
       </c>
-      <c r="N42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O42" s="14" t="s">
+      <c r="P42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="14" t="s">
         <v>1821</v>
-      </c>
-      <c r="P42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -25167,7 +25167,7 @@
         <v>1511</v>
       </c>
       <c r="D44" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>983</v>
@@ -25182,7 +25182,7 @@
         <v>20</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="J44" s="11" t="s">
         <v>20</v>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9039" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9024" uniqueCount="1827">
   <si>
     <t>type</t>
   </si>
@@ -5391,9 +5391,6 @@
     <t>7:1</t>
   </si>
   <si>
-    <t>Кто забил оба гола Спартака в последнем матче между клубами?</t>
-  </si>
-  <si>
     <t>Какое событие считается переломным в отношениях между болельщиками Спартака и Зенита?</t>
   </si>
   <si>
@@ -5485,9 +5482,6 @@
   </si>
   <si>
     <t>25 матчей</t>
-  </si>
-  <si>
-    <t>spartak_martins</t>
   </si>
   <si>
     <t>Битва при Молодях</t>
@@ -22878,7 +22872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD41"/>
@@ -23869,7 +23863,7 @@
         <v>103</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>103</v>
@@ -23922,7 +23916,7 @@
         <v>97</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>97</v>
@@ -23931,7 +23925,7 @@
         <v>562</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>560</v>
@@ -24418,7 +24412,7 @@
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="N29" s="11" t="s">
         <v>20</v>
@@ -24430,12 +24424,12 @@
         <v>20</v>
       </c>
       <c r="Q29" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>1763</v>
@@ -24528,7 +24522,7 @@
         <v>20</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="P31" s="11" t="s">
         <v>20</v>
@@ -24667,31 +24661,31 @@
         <v>20</v>
       </c>
       <c r="I34" s="14" t="s">
+        <v>1802</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="14" t="s">
         <v>1803</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="14" t="s">
+      <c r="L34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>1804</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="N34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="14" t="s">
         <v>1805</v>
       </c>
-      <c r="N34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="14" t="s">
+      <c r="P34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="14" t="s">
         <v>1806</v>
-      </c>
-      <c r="P34" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="14" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -24853,19 +24847,19 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>1776</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>1777</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>20</v>
@@ -24928,31 +24922,31 @@
         <v>20</v>
       </c>
       <c r="I39" s="14" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>1808</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="14" t="s">
+      <c r="L39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="14" t="s">
         <v>1809</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="14" t="s">
+      <c r="N39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="14" t="s">
         <v>1810</v>
       </c>
-      <c r="N39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="14" t="s">
+      <c r="P39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="14" t="s">
         <v>1811</v>
-      </c>
-      <c r="P39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -24985,13 +24979,13 @@
         <v>20</v>
       </c>
       <c r="K40" s="14" t="s">
+        <v>1812</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="14" t="s">
         <v>1813</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>1814</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>20</v>
@@ -25003,12 +24997,12 @@
         <v>20</v>
       </c>
       <c r="Q40" s="14" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1784</v>
@@ -25016,44 +25010,44 @@
       <c r="C41" s="13" t="s">
         <v>1511</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>1816</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1473</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>1721</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>1476</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>1645</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>1719</v>
-      </c>
-      <c r="Q41" s="9" t="s">
-        <v>386</v>
+      <c r="L41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -25061,49 +25055,49 @@
         <v>1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>1511</v>
+        <v>1788</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G42" t="s">
-        <v>1786</v>
+      <c r="G42">
+        <v>2007</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>1817</v>
+      <c r="I42">
+        <v>2008</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="14" t="s">
-        <v>1818</v>
+      <c r="K42">
+        <v>2009</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="14" t="s">
-        <v>1819</v>
+      <c r="M42">
+        <v>2010</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O42" s="14" t="s">
-        <v>1820</v>
+      <c r="O42">
+        <v>1995</v>
       </c>
       <c r="P42" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q42" s="14" t="s">
-        <v>1821</v>
+      <c r="Q42">
+        <v>2001</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -25113,100 +25107,100 @@
       <c r="B43" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>103</v>
+      <c r="C43" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1826</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>983</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G43">
-        <v>2007</v>
+      <c r="G43" t="s">
+        <v>984</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I43">
-        <v>2008</v>
+      <c r="I43" s="14" t="s">
+        <v>1820</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K43">
-        <v>2009</v>
+      <c r="K43" s="14" t="s">
+        <v>916</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M43">
-        <v>2010</v>
+      <c r="M43" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O43">
-        <v>1995</v>
+      <c r="O43" t="s">
+        <v>799</v>
       </c>
       <c r="P43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q43">
-        <v>2001</v>
+      <c r="Q43" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1790</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>20</v>
+      <c r="C44" t="s">
+        <v>556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
       </c>
       <c r="G44" t="s">
-        <v>984</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>1822</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>916</v>
+        <v>498</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" t="s">
-        <v>799</v>
-      </c>
-      <c r="P44" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>1610</v>
+        <v>104</v>
+      </c>
+      <c r="N44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -25219,144 +25213,94 @@
       <c r="C45" t="s">
         <v>556</v>
       </c>
-      <c r="E45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" t="s">
-        <v>498</v>
+      <c r="E45" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>70</v>
+        <v>1726</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="L45" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="M45" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="O45" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="P45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>117</v>
+        <v>377</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>1669</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C46" t="s">
-        <v>556</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>1726</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>1794</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="11" t="s">
         <v>1795</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="11" t="s">
+      <c r="H46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>1796</v>
       </c>
-      <c r="H47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="11" t="s">
+      <c r="J46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>1797</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K47" s="11" t="s">
+      <c r="L46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="11" t="s">
         <v>1798</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="11" t="s">
+      <c r="N46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="11" t="s">
         <v>1799</v>
       </c>
-      <c r="N47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="11" t="s">
+      <c r="P46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="11" t="s">
         <v>1800</v>
-      </c>
-      <c r="P47" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="11" t="s">
-        <v>1801</v>
       </c>
     </row>
   </sheetData>
@@ -25379,17 +25323,16 @@
     <hyperlink ref="E34" r:id="rId16"/>
     <hyperlink ref="C37" r:id="rId17"/>
     <hyperlink ref="E29" r:id="rId18"/>
-    <hyperlink ref="C44" r:id="rId19"/>
-    <hyperlink ref="C42" r:id="rId20"/>
+    <hyperlink ref="C43" r:id="rId19"/>
+    <hyperlink ref="C41" r:id="rId20"/>
     <hyperlink ref="C40" r:id="rId21"/>
     <hyperlink ref="C39" r:id="rId22"/>
-    <hyperlink ref="C47" r:id="rId23"/>
-    <hyperlink ref="E47" r:id="rId24"/>
-    <hyperlink ref="E42" r:id="rId25"/>
-    <hyperlink ref="C41" r:id="rId26"/>
+    <hyperlink ref="C46" r:id="rId23"/>
+    <hyperlink ref="E46" r:id="rId24"/>
+    <hyperlink ref="E41" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52921616-8A6A-435A-8B43-601CB134F7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2320F4-B7B3-4A88-8388-262CC934DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9687" uniqueCount="1962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="1959">
   <si>
     <t>type</t>
   </si>
@@ -5858,9 +5858,6 @@
     <t>12 место</t>
   </si>
   <si>
-    <t>num_12</t>
-  </si>
-  <si>
     <t>Правда ли, что Локомотив никогда не опускался ниже 10 места в Российской Премьер Лиге?</t>
   </si>
   <si>
@@ -5901,12 +5898,6 @@
   </si>
   <si>
     <t>14 место</t>
-  </si>
-  <si>
-    <t>num_14</t>
-  </si>
-  <si>
-    <t>num_13</t>
   </si>
   <si>
     <t>13 место</t>
@@ -27490,7 +27481,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28305,7 +28296,7 @@
         <v>110</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -28319,7 +28310,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>110</v>
@@ -28372,7 +28363,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>328</v>
@@ -28425,7 +28416,7 @@
         <v>95</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>116</v>
@@ -28521,8 +28512,8 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>4</v>
+      <c r="A20" s="9" t="s">
+        <v>1513</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1906</v>
@@ -28531,43 +28522,43 @@
         <v>95</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>1954</v>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>1953</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>1955</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>1956</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>1939</v>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>1938</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>562</v>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>1821</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>1172</v>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>560</v>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>1171</v>
@@ -28684,49 +28675,49 @@
         <v>1908</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>1944</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>1946</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1945</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>1947</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>1948</v>
       </c>
-      <c r="N23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>1949</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -28737,11 +28728,11 @@
         <v>1909</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>20</v>
@@ -28788,11 +28779,11 @@
         <v>1910</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>20</v>
@@ -29461,10 +29452,10 @@
         <v>1935</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>20</v>
@@ -29476,7 +29467,7 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>20</v>
@@ -29488,13 +29479,13 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
+        <v>1942</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
         <v>1943</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1944</v>
       </c>
       <c r="P38" s="4" t="s">
         <v>20</v>
@@ -29532,16 +29523,16 @@
         <v>1171</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>562</v>
+        <v>1172</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>1173</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>1939</v>
+        <v>562</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>1938</v>
+        <v>1821</v>
       </c>
       <c r="N39" s="7" t="s">
         <v>89</v>
@@ -29614,13 +29605,13 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>108</v>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2320F4-B7B3-4A88-8388-262CC934DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E09CA28-C5DD-455C-8A4A-5B7A0A70C3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="1959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="1960">
   <si>
     <t>type</t>
   </si>
@@ -5916,6 +5916,9 @@
   </si>
   <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_loko_rostov_quest.webp</t>
+  </si>
+  <si>
+    <t>7 тур. 31.08.2025. 15:45</t>
   </si>
 </sst>
 </file>
@@ -27481,7 +27484,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28257,7 +28260,7 @@
         <v>108</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1740</v>
+        <v>1959</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>501</v>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A2787-CA11-46D3-990E-481EF42B62EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E8B08-545A-470F-8BF4-FBFBA3794A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10868" uniqueCount="2065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10893" uniqueCount="2133">
   <si>
     <t>type</t>
   </si>
@@ -6172,30 +6172,9 @@
     <t>67 очков</t>
   </si>
   <si>
-    <t>25-летний (27.09.1999) российский центральный защитник. Перешёл из «Уфы» весной 2019, а уже летом выкуплен Спартак окончательно</t>
-  </si>
-  <si>
-    <t>27-летний (28.05.1998) российский левый защитник. Воспитанник «Зенита», но летом 2024 был куплен Спартак за ~€2 млн</t>
-  </si>
-  <si>
-    <t>21-летний (17.02.2004) белорусский центрфорвард. Пришёл из академии «Чертаново» и дебютировал за Спартак в июле 2025</t>
-  </si>
-  <si>
-    <t>Кто из этих футболистов никогда не выступал за Спартак?</t>
-  </si>
-  <si>
-    <t>23-летний (09.01.2002) российский вратарь. Воспитанник академии «Динамоа»</t>
-  </si>
-  <si>
-    <t>25-летний (01.02.2000) российский опорник. Воспитанник Динамоа</t>
-  </si>
-  <si>
     <t>С кем сыграет Динамо в следующем туре?</t>
   </si>
   <si>
-    <t>С какой командой играл Динамо в прошлом туре?</t>
-  </si>
-  <si>
     <t>На каком месте находится Динамо после шести туров?</t>
   </si>
   <si>
@@ -6232,10 +6211,235 @@
     <t>С каким счётом завершилась последняя официальная встреча Спартака и Динамо?</t>
   </si>
   <si>
-    <t>Как зовут главного тренера Динамо?</t>
-  </si>
-  <si>
     <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_cska_krasnodar_quest.webp</t>
+  </si>
+  <si>
+    <t>Сборная Иордании</t>
+  </si>
+  <si>
+    <t>Сборная Ирана</t>
+  </si>
+  <si>
+    <t>Сборная Боливии</t>
+  </si>
+  <si>
+    <t>Сборная Перу</t>
+  </si>
+  <si>
+    <t>Сборная Чили</t>
+  </si>
+  <si>
+    <t>Сборная Аргентины</t>
+  </si>
+  <si>
+    <t>Сборная Катара</t>
+  </si>
+  <si>
+    <t>Сборная Нигерии</t>
+  </si>
+  <si>
+    <t>Сборная Бразилии</t>
+  </si>
+  <si>
+    <t>Сборная Беларуси</t>
+  </si>
+  <si>
+    <t>Сборная Сербии</t>
+  </si>
+  <si>
+    <t>Сборная Кубы</t>
+  </si>
+  <si>
+    <t>Кто из игроков Динамо не был вызван в свою сборную в эту паузу?</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков не был вызван в свою сборную в эту паузу?</t>
+  </si>
+  <si>
+    <t>Кто из игроков Спартака не был вызван в свою сборную в эту паузу?</t>
+  </si>
+  <si>
+    <t>din_m_lunev</t>
+  </si>
+  <si>
+    <t>33-летний (13.11.1991) российский вратарь</t>
+  </si>
+  <si>
+    <t>Андрей Лунёв</t>
+  </si>
+  <si>
+    <t>din_m_leshchuk</t>
+  </si>
+  <si>
+    <t>din_m_osipenko</t>
+  </si>
+  <si>
+    <t>Максим Осипенко</t>
+  </si>
+  <si>
+    <t>din_m_kudravets</t>
+  </si>
+  <si>
+    <t>din_m_tyukavin</t>
+  </si>
+  <si>
+    <t>din_m_makarov</t>
+  </si>
+  <si>
+    <t>31-летний (16.05.1994) российский центральный защитник</t>
+  </si>
+  <si>
+    <t>din_m_kutitskiy</t>
+  </si>
+  <si>
+    <t>Александр Куцицкий</t>
+  </si>
+  <si>
+    <t>din_m_babaev</t>
+  </si>
+  <si>
+    <t>Ульви Бабаев</t>
+  </si>
+  <si>
+    <t>din_m_sergeev</t>
+  </si>
+  <si>
+    <t>din_m_gladyshev</t>
+  </si>
+  <si>
+    <t>din_m_fernandez</t>
+  </si>
+  <si>
+    <t>25-летний (07.06.2000) парагвайский центральный защитник</t>
+  </si>
+  <si>
+    <t>din_m_marichal</t>
+  </si>
+  <si>
+    <t>din_m_laxalt</t>
+  </si>
+  <si>
+    <t>din_m_chavez</t>
+  </si>
+  <si>
+    <t>din_m_moumi_ngamaleu</t>
+  </si>
+  <si>
+    <t>Николя Нгамалё</t>
+  </si>
+  <si>
+    <t>din_m_gomes</t>
+  </si>
+  <si>
+    <t>din_m_bitello</t>
+  </si>
+  <si>
+    <t>25-летний (07.01.2000) бразильский атакующий полузащитник</t>
+  </si>
+  <si>
+    <t>din_m_carrascal</t>
+  </si>
+  <si>
+    <t>Хорхе Караскаль</t>
+  </si>
+  <si>
+    <t>27-летний (03.07.1998) бразильский левый вингер</t>
+  </si>
+  <si>
+    <t>din_m_caceres</t>
+  </si>
+  <si>
+    <t>Хуан Хосе Касерес</t>
+  </si>
+  <si>
+    <t>din_m_maouhoub</t>
+  </si>
+  <si>
+    <t>Эль Махди Маухуб</t>
+  </si>
+  <si>
+    <t>30-летний (11.05.1995) российский нападающий</t>
+  </si>
+  <si>
+    <t>din_m_glebov</t>
+  </si>
+  <si>
+    <t>Данил Глебов</t>
+  </si>
+  <si>
+    <t>22-летний (05.06.2003) марокканский форвард</t>
+  </si>
+  <si>
+    <t>При каком  тренере Динамо Москва выиграло свой единственный трофей в российской истории - Кубок России?</t>
+  </si>
+  <si>
+    <t>Константин Бесков привел Динамо к последнему на данный момент трофею - Кубку России 1995</t>
+  </si>
+  <si>
+    <t>Валерий Газзаев</t>
+  </si>
+  <si>
+    <t>Андрей Кобелев</t>
+  </si>
+  <si>
+    <t>Дмитрий Хохлов</t>
+  </si>
+  <si>
+    <t>27-летний (19.03.1998) российский вратарь. Воспитанник «Спартака», выступает за основную команду с июля 2018 года</t>
+  </si>
+  <si>
+    <t>spartak_pomazun</t>
+  </si>
+  <si>
+    <t>spartak_dovbnya</t>
+  </si>
+  <si>
+    <t>spartak_litvinov</t>
+  </si>
+  <si>
+    <t>Руслан Литвинов</t>
+  </si>
+  <si>
+    <t>spartak_chernov</t>
+  </si>
+  <si>
+    <t>Никита Чернов</t>
+  </si>
+  <si>
+    <t>spartak_denisov</t>
+  </si>
+  <si>
+    <t>Даниил Денисов</t>
+  </si>
+  <si>
+    <t>spartak_reabciuk</t>
+  </si>
+  <si>
+    <t>spartak_barco</t>
+  </si>
+  <si>
+    <t>spartak_martins</t>
+  </si>
+  <si>
+    <t>spartak_massalyga</t>
+  </si>
+  <si>
+    <t>spartak_umarov</t>
+  </si>
+  <si>
+    <t>spartak_laykin</t>
+  </si>
+  <si>
+    <t>56 очков</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo_quest.webp</t>
+  </si>
+  <si>
+    <t>С какой из этих сборных Россия сыграет в эту международную паузу?</t>
+  </si>
+  <si>
+    <t>С какой командой играло Динамо в прошлом туре?</t>
   </si>
 </sst>
 </file>
@@ -29092,7 +29296,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33752,8 +33956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE7289-7DB5-4735-BBDC-D575E2435011}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34911,13 +35115,13 @@
         <v>1960</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>2034</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
@@ -34964,11 +35168,11 @@
         <v>1961</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>20</v>
@@ -35015,11 +35219,11 @@
         <v>1962</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>2064</v>
+        <v>2056</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>20</v>
@@ -35924,10 +36128,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB5B31-E8C3-4FF7-8517-A827D5A90B61}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35950,7 +36154,7 @@
     <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -36003,343 +36207,325 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>702</v>
+        <v>2072</v>
       </c>
       <c r="D2" t="s">
-        <v>2043</v>
+        <v>2073</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>702</v>
+        <v>2072</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>2072</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>703</v>
+        <v>2074</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>2075</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>352</v>
+        <v>707</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>20</v>
+        <v>2076</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>350</v>
+        <v>2077</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>20</v>
+        <v>2078</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>20</v>
+        <v>2079</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>261</v>
+        <v>394</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>20</v>
+        <v>2080</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1532</v>
+        <v>2076</v>
       </c>
       <c r="D3" t="s">
-        <v>2044</v>
+        <v>2081</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1532</v>
+        <v>2076</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>2076</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>257</v>
+        <v>2077</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>2072</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>352</v>
+        <v>2074</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>2082</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>350</v>
+        <v>2083</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>20</v>
+        <v>2084</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>703</v>
+        <v>2085</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>20</v>
+        <v>2086</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1534</v>
+        <v>241</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>20</v>
+        <v>2087</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1989</v>
+        <v>2088</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2089</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1988</v>
+        <v>2088</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>2088</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1543</v>
+        <v>674</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>2090</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>265</v>
+        <v>414</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>20</v>
+        <v>2091</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>264</v>
+        <v>673</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>20</v>
+        <v>2092</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>1542</v>
+        <v>416</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>20</v>
+        <v>2093</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>262</v>
+        <v>2094</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>20</v>
+        <v>2095</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>1541</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1535</v>
+        <v>2096</v>
       </c>
       <c r="D5" t="s">
-        <v>1536</v>
+        <v>2097</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1535</v>
+        <v>2096</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>2096</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>261</v>
+        <v>546</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>2090</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>703</v>
+        <v>414</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>20</v>
+        <v>2088</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>258</v>
+        <v>674</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>20</v>
+        <v>2091</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>1534</v>
+        <v>673</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>20</v>
+        <v>2092</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>1537</v>
+        <v>416</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>20</v>
+        <v>2098</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>1538</v>
-      </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1539</v>
+        <v>2095</v>
       </c>
       <c r="D6" t="s">
-        <v>1540</v>
+        <v>2100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1539</v>
+        <v>2095</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>2095</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>1541</v>
+        <v>457</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>2093</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>265</v>
+        <v>2094</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>2098</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>264</v>
+        <v>2099</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>20</v>
+        <v>2088</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>1542</v>
+        <v>674</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>20</v>
+        <v>2101</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>262</v>
+        <v>2102</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>20</v>
+        <v>2103</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1987</v>
+        <v>2086</v>
       </c>
       <c r="D7" t="s">
-        <v>2045</v>
+        <v>2105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1987</v>
+        <v>2086</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>2086</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>2079</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>20</v>
+        <v>2087</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>20</v>
+        <v>2072</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>680</v>
+        <v>2074</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>20</v>
+        <v>2076</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>261</v>
+        <v>2077</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>20</v>
+        <v>2106</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>1991</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36347,52 +36533,52 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1992</v>
+        <v>2103</v>
       </c>
       <c r="D8" t="s">
-        <v>2047</v>
+        <v>2108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1992</v>
+        <v>2103</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>2103</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>1994</v>
+        <v>2104</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>2095</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>1995</v>
+        <v>457</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>20</v>
+        <v>2093</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>786</v>
+        <v>2094</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>20</v>
+        <v>2088</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>1996</v>
+        <v>674</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>20</v>
+        <v>2090</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>1997</v>
+        <v>414</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>20</v>
+        <v>2092</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36400,52 +36586,52 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1998</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1999</v>
+        <v>1623</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>2114</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1998</v>
+        <v>1623</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>1623</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>593</v>
+        <v>814</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>2115</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>21</v>
+        <v>351</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>20</v>
+        <v>2116</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>2000</v>
+        <v>1656</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>20</v>
+        <v>2117</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>2001</v>
+        <v>2118</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>20</v>
+        <v>2119</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>2002</v>
+        <v>2120</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>20</v>
+        <v>2121</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36453,52 +36639,52 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2048</v>
+        <v>1717</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1718</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2004</v>
+        <v>1717</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>1717</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>595</v>
+        <v>387</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>1719</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>1994</v>
+        <v>386</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>20</v>
+        <v>2123</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>1995</v>
+        <v>379</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>20</v>
+        <v>1642</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>786</v>
+        <v>1644</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>20</v>
+        <v>2124</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>1996</v>
+        <v>1280</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>20</v>
+        <v>1645</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36506,52 +36692,52 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>2007</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2008</v>
+        <v>1726</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1727</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2007</v>
+        <v>1726</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>1726</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>36</v>
+        <v>377</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>1642</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>1644</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>20</v>
+        <v>2125</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>2009</v>
+        <v>1473</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>20</v>
+        <v>2124</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>2001</v>
+        <v>1280</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>20</v>
+        <v>1724</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>595</v>
+        <v>1476</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>20</v>
+        <v>1647</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36559,52 +36745,52 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>2010</v>
+        <v>1649</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>2011</v>
+        <v>1650</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2010</v>
+        <v>1649</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>1649</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2012</v>
+        <v>1481</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>1642</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>1644</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>20</v>
+        <v>2125</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>2000</v>
+        <v>1473</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>20</v>
+        <v>2124</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>2001</v>
+        <v>1280</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>20</v>
+        <v>1724</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>2002</v>
+        <v>1476</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>20</v>
+        <v>1647</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1513</v>
       </c>
@@ -36612,52 +36798,52 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>2013</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2014</v>
+        <v>1651</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1652</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>2013</v>
+        <v>1651</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>1651</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>132</v>
+        <v>1078</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>20</v>
+        <v>2126</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>1653</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>20</v>
+        <v>2127</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>2000</v>
+        <v>810</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>20</v>
+        <v>2128</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>2001</v>
+        <v>1654</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>20</v>
+        <v>1735</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>2002</v>
+        <v>1655</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>20</v>
+        <v>2116</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -36665,7 +36851,7 @@
         <v>497</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2032</v>
@@ -36710,15 +36896,15 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>2033</v>
@@ -36763,7 +36949,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -36771,7 +36957,7 @@
         <v>1347</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="4" t="s">
@@ -36814,15 +37000,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2050</v>
+        <v>2132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
@@ -36865,7 +37051,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>4</v>
       </c>
@@ -36873,7 +37059,7 @@
         <v>510</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>1911</v>
@@ -36918,15 +37104,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>1513</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>1951</v>
@@ -36971,268 +37157,244 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>1</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1985</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2063</v>
+        <v>424</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>211</v>
+        <v>1001</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>214</v>
+        <v>305</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>2053</v>
+        <v>2046</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>2054</v>
+        <v>2047</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>2056</v>
+        <v>2049</v>
       </c>
       <c r="N22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>2057</v>
+        <v>2050</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2059</v>
+        <v>2052</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>1009</v>
-      </c>
+      <c r="K23" s="9"/>
       <c r="L23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>1889</v>
-      </c>
+      <c r="M23" s="9"/>
       <c r="N23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="9" t="s">
-        <v>1080</v>
-      </c>
+      <c r="O23" s="9"/>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2060</v>
+        <v>2053</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>1958</v>
+        <v>2130</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="H24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>1067</v>
-      </c>
+      <c r="I24" s="7"/>
       <c r="J24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>803</v>
-      </c>
+      <c r="K24" s="7"/>
       <c r="L24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="7" t="s">
-        <v>169</v>
-      </c>
+      <c r="M24" s="7"/>
       <c r="N24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>1148</v>
-      </c>
+      <c r="O24" s="7"/>
       <c r="P24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="7" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -37242,9 +37404,6 @@
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>1911</v>
-      </c>
       <c r="E25" s="4" t="s">
         <v>108</v>
       </c>
@@ -37258,7 +37417,7 @@
         <v>112</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>70</v>
@@ -37285,7 +37444,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -37295,9 +37454,7 @@
       <c r="C26" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>1902</v>
-      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="7" t="s">
         <v>1661</v>
       </c>
@@ -37338,7 +37495,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1523</v>
       </c>
@@ -37346,19 +37503,19 @@
         <v>1702</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>2041</v>
+        <v>1715</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>81</v>
@@ -37367,10 +37524,10 @@
         <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>87</v>
@@ -37391,27 +37548,27 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>1523</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2061</v>
+        <v>2054</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>2042</v>
+        <v>2129</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>81</v>
@@ -37425,11 +37582,11 @@
       <c r="K28" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>144</v>
+      <c r="L28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>83</v>
@@ -37444,211 +37601,210 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>2046</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>1969</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>1560</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>944</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>469</v>
+      <c r="C30" s="5" t="s">
+        <v>2130</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
-        <v>469</v>
+      <c r="E30" s="5" t="s">
+        <v>2130</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>581</v>
+        <v>292</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>582</v>
+        <v>290</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>469</v>
+      <c r="C31" s="5" t="s">
+        <v>2130</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
-        <v>469</v>
+      <c r="E31" s="5" t="s">
+        <v>2130</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>292</v>
+        <v>589</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>586</v>
+        <v>64</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>588</v>
+        <v>73</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
-        <v>469</v>
+        <v>482</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>2130</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>589</v>
+        <v>484</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>371</v>
+        <v>485</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>64</v>
+        <v>486</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>590</v>
+        <v>487</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>73</v>
+        <v>488</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>281</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -37656,70 +37812,183 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C33" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>2058</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>2059</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>2061</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>489</v>
+    </row>
+    <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>2113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1" xr:uid="{93CEDC73-7D75-49EE-8A85-B20B39728B8D}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{D498D6DD-34DF-4AAD-AB1B-8B9793EDA955}"/>
-    <hyperlink ref="C22" r:id="rId3" xr:uid="{2EB538FC-1B7C-403A-82BC-E0C7F86092BE}"/>
-    <hyperlink ref="E22" r:id="rId4" xr:uid="{D81148AA-3125-497B-BE5E-745A1A38027A}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{9358C590-BE10-4B8B-8C43-A8F3671D5496}"/>
-    <hyperlink ref="E24" r:id="rId6" xr:uid="{30EB71C9-917C-4CD7-B0BE-DEFF3F67F772}"/>
-    <hyperlink ref="C30" r:id="rId7" xr:uid="{31CEDC4E-D201-45A3-BEF3-C08DD806EB09}"/>
-    <hyperlink ref="E30" r:id="rId8" xr:uid="{AC40D096-ED7F-4415-942D-607635E31C1A}"/>
-    <hyperlink ref="C31" r:id="rId9" xr:uid="{CF06D730-2E4D-43A7-AEC2-E243C4437941}"/>
-    <hyperlink ref="E31" r:id="rId10" xr:uid="{633F0469-CB9C-41DE-B515-16992CFC7B18}"/>
-    <hyperlink ref="C32" r:id="rId11" xr:uid="{81832A25-AE42-478D-9B24-F15E9E82205C}"/>
-    <hyperlink ref="E32" r:id="rId12" xr:uid="{34461780-C227-47EF-A082-4332A0A08224}"/>
-    <hyperlink ref="C33" r:id="rId13" xr:uid="{B16ADC0D-9B76-4D32-BB58-C2959224B915}"/>
-    <hyperlink ref="E33" r:id="rId14" xr:uid="{AEAB1BE9-BE20-4142-AD73-AD274C1FD0A6}"/>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{31CEDC4E-D201-45A3-BEF3-C08DD806EB09}"/>
+    <hyperlink ref="C37" r:id="rId2" xr:uid="{CF03EF6F-4302-44AD-ACEF-A5D9F644E8EB}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{3EB998E8-9BF8-499A-B62F-21E7DDD4B984}"/>
+    <hyperlink ref="C31" r:id="rId4" xr:uid="{723F0F0D-E964-4399-9B1A-9E9BCBE070AA}"/>
+    <hyperlink ref="C32" r:id="rId5" xr:uid="{24FD9832-B259-4254-B332-201866E001A7}"/>
+    <hyperlink ref="E32" r:id="rId6" xr:uid="{ABC2410D-AE80-4393-B293-7F49DA972464}"/>
+    <hyperlink ref="E31" r:id="rId7" xr:uid="{18B3C913-CFC3-44BC-A788-CC8BBA5815A3}"/>
+    <hyperlink ref="E30" r:id="rId8" xr:uid="{28A6C406-3981-41C4-B277-C7CCEB72A90B}"/>
+    <hyperlink ref="E29" r:id="rId9" xr:uid="{77FEFD38-3BCC-4151-ABBA-019964019C50}"/>
+    <hyperlink ref="E24" r:id="rId10" xr:uid="{CE36D556-C1C3-4D5D-9D32-A7A4B949059D}"/>
+    <hyperlink ref="E23" r:id="rId11" xr:uid="{3980853C-AEF4-477C-AF55-CB391FA1B6CA}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{091F2972-E9D2-4258-B556-830316C52B0B}"/>
+    <hyperlink ref="C22" r:id="rId13" xr:uid="{DF182F09-E8AC-4ADA-8741-DA69BE8B1CAE}"/>
+    <hyperlink ref="C23" r:id="rId14" xr:uid="{509CE410-6C21-42A0-88A7-02119BEB0A28}"/>
+    <hyperlink ref="C24" r:id="rId15" xr:uid="{B74BB6E1-82FC-4323-B908-62EB1455C73C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37730,7 +37999,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39516,8 +39785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314E8B08-545A-470F-8BF4-FBFBA3794A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830BB2E-C5B1-44F7-BFAF-2D599843A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10893" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10929" uniqueCount="2137">
   <si>
     <t>type</t>
   </si>
@@ -6440,6 +6440,18 @@
   </si>
   <si>
     <t>С какой командой играло Динамо в прошлом туре?</t>
+  </si>
+  <si>
+    <t>ЦСКА 3:1 Акрон (Матеуш 6', К. Глебов 19', И. Обляков 59' (пен) - А. Дзюба 34')</t>
+  </si>
+  <si>
+    <t>Крылья Советов 0:6 Краснодар (Г. Перрин 3', Э. Сперцян 13', Х. Кордоба 42' и 86', Д. Бахти 78', Н. Кривцов 90')</t>
+  </si>
+  <si>
+    <t>14 очков</t>
+  </si>
+  <si>
+    <t>7 голов 6 матчах</t>
   </si>
 </sst>
 </file>
@@ -33954,10 +33966,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE7289-7DB5-4735-BBDC-D575E2435011}">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34803,7 +34815,9 @@
       <c r="C16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>2133</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>101</v>
       </c>
@@ -34854,7 +34868,9 @@
       <c r="C17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>2134</v>
+      </c>
       <c r="E17" s="7" t="s">
         <v>501</v>
       </c>
@@ -34906,22 +34922,22 @@
         <v>112</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1911</v>
+        <v>2135</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>85</v>
@@ -34959,7 +34975,7 @@
         <v>70</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1951</v>
+        <v>148</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>70</v>
@@ -35262,133 +35278,133 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>498</v>
+        <v>2136</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>1902</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>1661</v>
+      <c r="D26" s="7" t="s">
+        <v>2041</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1661</v>
+        <v>83</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1726</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>257</v>
+        <v>143</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>1667</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1523</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1598</v>
+        <v>1967</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>81</v>
@@ -35409,120 +35425,123 @@
         <v>144</v>
       </c>
       <c r="N27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>1967</v>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1968</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>2042</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>1560</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1968</v>
+        <v>1548</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>1549</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1550</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>112</v>
+        <v>1549</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1969</v>
+        <v>1551</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>373</v>
+        <v>1552</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1555</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>1556</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>1560</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>944</v>
       </c>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
@@ -35533,230 +35552,228 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1548</v>
+        <v>1970</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>1550</v>
-      </c>
+        <v>1971</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1549</v>
+        <v>1971</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1551</v>
+        <v>285</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>1552</v>
+        <v>1029</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>1553</v>
+        <v>1972</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>1554</v>
+        <v>1973</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>1555</v>
+        <v>1974</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>1556</v>
+        <v>1975</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1970</v>
+        <v>1976</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>701</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>637</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>1971</v>
+        <v>701</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>285</v>
+      <c r="G31" s="4">
+        <v>35</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>1029</v>
+      <c r="I31" s="4">
+        <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>1972</v>
+      <c r="K31" s="4">
+        <v>80</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>1973</v>
+      <c r="M31" s="4">
+        <v>50</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>1974</v>
+      <c r="O31" s="4">
+        <v>9</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="4" t="s">
-        <v>1975</v>
-      </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="Q31" s="4">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>637</v>
+        <v>1978</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>701</v>
+        <v>112</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="4">
-        <v>35</v>
+      <c r="G32" s="4" t="s">
+        <v>1979</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="4">
-        <v>1</v>
+      <c r="I32" s="4" t="s">
+        <v>1980</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="4">
-        <v>80</v>
+      <c r="K32" s="4" t="s">
+        <v>1981</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M32" s="4">
-        <v>50</v>
+      <c r="M32" s="4" t="s">
+        <v>1982</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O32" s="4">
-        <v>9</v>
+      <c r="O32" s="4" t="s">
+        <v>1983</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q32" s="4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="4" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1977</v>
+        <v>1569</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>1530</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1978</v>
+        <v>1570</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>112</v>
+        <v>1530</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1979</v>
+        <v>1571</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>1980</v>
+        <v>1572</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>1981</v>
+        <v>1573</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>1982</v>
+        <v>1574</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>1983</v>
+        <v>1575</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>1984</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1569</v>
+        <v>1561</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>1570</v>
-      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>1530</v>
       </c>
@@ -35764,147 +35781,146 @@
         <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1571</v>
+        <v>522</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>1572</v>
+        <v>523</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>1573</v>
+        <v>523</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>1574</v>
+        <v>523</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>1575</v>
+        <v>523</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>890</v>
+        <v>523</v>
       </c>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1561</v>
+        <v>2015</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>2016</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>1530</v>
+        <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>522</v>
+        <v>2017</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>523</v>
+        <v>2018</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>523</v>
+        <v>2019</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>523</v>
+        <v>2020</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>523</v>
+        <v>2021</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+        <v>2022</v>
+      </c>
     </row>
     <row r="36" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2015</v>
+        <v>1263</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>2017</v>
+        <v>169</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>2018</v>
+        <v>1265</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>2019</v>
+        <v>840</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>2020</v>
+        <v>574</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>2021</v>
+        <v>177</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>2022</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -35912,204 +35928,151 @@
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>2023</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>1271</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>20</v>
+        <v>2013</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>1272</v>
+        <v>132</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>20</v>
+        <v>1992</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1273</v>
+        <v>1994</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>20</v>
+        <v>2026</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>1274</v>
+        <v>2000</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>20</v>
+        <v>2027</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>1275</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2007</v>
+        <v>70</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>2007</v>
+        <v>20</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>36</v>
+        <v>2029</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>2025</v>
+        <v>20</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>169</v>
+        <v>2030</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>2013</v>
+        <v>20</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>1994</v>
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2031</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>2026</v>
+        <v>20</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>2000</v>
+        <v>115</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>2027</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>2028</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>2029</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>2030</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" t="s">
-        <v>2031</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="P40" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -36130,8 +36093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB5B31-E8C3-4FF7-8517-A827D5A90B61}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37333,27 +37296,39 @@
       <c r="F23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="H23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="J23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="L23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M23" s="9"/>
+      <c r="M23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="N23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="9"/>
+      <c r="Q23" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
@@ -37372,27 +37347,39 @@
       <c r="F24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="H24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="J24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="L24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="N24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O24" s="7"/>
+      <c r="O24" s="4" t="s">
+        <v>498</v>
+      </c>
       <c r="P24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q24" s="7"/>
+      <c r="Q24" s="4" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -37814,6 +37801,9 @@
       <c r="B33" s="2" t="s">
         <v>2131</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
@@ -37858,6 +37848,9 @@
       <c r="B34" s="2" t="s">
         <v>2131</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
@@ -37896,27 +37889,144 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>2069</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>2068</v>
+      </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>2071</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>2068</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>2070</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>469</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2063</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>2068</v>
       </c>
     </row>
     <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830BB2E-C5B1-44F7-BFAF-2D599843A2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2874FC-3E85-405F-92A9-F28A38083CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10929" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10874" uniqueCount="2142">
   <si>
     <t>type</t>
   </si>
@@ -5932,9 +5932,6 @@
     <t>Кто из этих футболистов играл и за Краснодар, и за ЦСКА?</t>
   </si>
   <si>
-    <t>Кто лидирует в РПЛ после 6 туров?</t>
-  </si>
-  <si>
     <t>Кто лидирует в РПЛ после 5 туров?</t>
   </si>
   <si>
@@ -6175,9 +6172,6 @@
     <t>С кем сыграет Динамо в следующем туре?</t>
   </si>
   <si>
-    <t>На каком месте находится Динамо после шести туров?</t>
-  </si>
-  <si>
     <t>Суперкубок России 25/26. Динамо 0:1 Спартак (И. Дивеев 48')</t>
   </si>
   <si>
@@ -6202,9 +6196,6 @@
     <t>Кто из этих футболистов играл и за Спартак, и за Динамо?</t>
   </si>
   <si>
-    <t>Кто из этих футболистов играл и за Динамо, и за Спартак?</t>
-  </si>
-  <si>
     <t>На каком месте Динамо финишировал в РПЛ-2024/25?</t>
   </si>
   <si>
@@ -6250,15 +6241,6 @@
     <t>Сборная Кубы</t>
   </si>
   <si>
-    <t>Кто из игроков Динамо не был вызван в свою сборную в эту паузу?</t>
-  </si>
-  <si>
-    <t>Кто из этих игроков не был вызван в свою сборную в эту паузу?</t>
-  </si>
-  <si>
-    <t>Кто из игроков Спартака не был вызван в свою сборную в эту паузу?</t>
-  </si>
-  <si>
     <t>din_m_lunev</t>
   </si>
   <si>
@@ -6349,9 +6331,6 @@
     <t>din_m_caceres</t>
   </si>
   <si>
-    <t>Хуан Хосе Касерес</t>
-  </si>
-  <si>
     <t>din_m_maouhoub</t>
   </si>
   <si>
@@ -6452,13 +6431,49 @@
   </si>
   <si>
     <t>7 голов 6 матчах</t>
+  </si>
+  <si>
+    <t>9 тур. 21.09.2025. 14:30</t>
+  </si>
+  <si>
+    <t>9 тур. 21.09.2025. 12:00</t>
+  </si>
+  <si>
+    <t>Спартак 2:1 Сочи (Э. Барко 16' (пен), 90+7' (пен) - Д. Васильев 42')</t>
+  </si>
+  <si>
+    <t>Динамо Махачкала : Динамо Москва ( ''' - ''')</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после семи туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Динамо после семи туров?</t>
+  </si>
+  <si>
+    <t>11 очков</t>
+  </si>
+  <si>
+    <t>Кто лидирует в РПЛ после 7 туров?</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром РПЛ после 7 туров?</t>
+  </si>
+  <si>
+    <t>Антон Миранчук</t>
+  </si>
+  <si>
+    <t>Хуан Касерес</t>
+  </si>
+  <si>
+    <t>Кто из игроков Динамо и Спартака не был вызван в свою сборную в эту паузу?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6480,6 +6495,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6527,7 +6549,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6566,6 +6588,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -33120,7 +33146,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>556</v>
@@ -34056,7 +34082,7 @@
         <v>702</v>
       </c>
       <c r="D2" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>702</v>
@@ -34165,13 +34191,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>1988</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>1989</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -34333,13 +34359,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D7" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>20</v>
@@ -34375,7 +34401,7 @@
         <v>20</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -34389,25 +34415,25 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="D8" t="s">
         <v>1992</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>1993</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>1992</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>1994</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1995</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>20</v>
@@ -34419,13 +34445,13 @@
         <v>20</v>
       </c>
       <c r="M8" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>1996</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>1997</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>20</v>
@@ -34442,13 +34468,13 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D9" t="s">
         <v>1998</v>
       </c>
-      <c r="D9" t="s">
-        <v>1999</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -34466,25 +34492,25 @@
         <v>20</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>2000</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>2001</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>2002</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>2003</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -34495,13 +34521,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D10" t="s">
         <v>2004</v>
       </c>
-      <c r="D10" t="s">
-        <v>2005</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -34513,13 +34539,13 @@
         <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>1993</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>1994</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>1995</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>20</v>
@@ -34531,13 +34557,13 @@
         <v>20</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -34548,13 +34574,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D11" t="s">
         <v>2007</v>
       </c>
-      <c r="D11" t="s">
-        <v>2008</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -34572,13 +34598,13 @@
         <v>20</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="N11" s="4" t="s">
         <v>20</v>
@@ -34601,19 +34627,19 @@
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>2010</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>2011</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>2010</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>2012</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>20</v>
@@ -34625,19 +34651,19 @@
         <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>2000</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>2001</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>2002</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>20</v>
@@ -34654,13 +34680,13 @@
         <v>17</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D13" t="s">
         <v>2013</v>
       </c>
-      <c r="D13" t="s">
-        <v>2014</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -34678,19 +34704,19 @@
         <v>20</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>2000</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>2001</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>2002</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>20</v>
@@ -34710,7 +34736,7 @@
         <v>112</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>95</v>
@@ -34763,7 +34789,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>101</v>
@@ -34816,7 +34842,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>101</v>
@@ -34869,7 +34895,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>2134</v>
+        <v>2127</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>501</v>
@@ -34916,13 +34942,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>2135</v>
+        <v>2128</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>112</v>
@@ -35028,7 +35054,7 @@
         <v>1530</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>1530</v>
@@ -35131,49 +35157,49 @@
         <v>1960</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>2033</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>2034</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>2035</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>2036</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>2037</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="N22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>2039</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>2040</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -35184,11 +35210,11 @@
         <v>1961</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>20</v>
@@ -35235,11 +35261,11 @@
         <v>1962</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>20</v>
@@ -35283,13 +35309,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>1661</v>
@@ -35342,7 +35368,7 @@
         <v>112</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>112</v>
@@ -35389,13 +35415,13 @@
         <v>1523</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>70</v>
@@ -35442,7 +35468,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>112</v>
@@ -35455,7 +35481,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>20</v>
@@ -35552,14 +35578,14 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>1970</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>1971</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
@@ -35577,25 +35603,25 @@
         <v>20</v>
       </c>
       <c r="K30" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>1972</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
         <v>1973</v>
       </c>
-      <c r="N30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>1974</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>1975</v>
       </c>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
@@ -35606,7 +35632,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>701</v>
@@ -35659,13 +35685,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>112</v>
@@ -35674,37 +35700,37 @@
         <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>1980</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>1981</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="4" t="s">
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>1983</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>1984</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -35822,13 +35848,13 @@
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>70</v>
@@ -35837,37 +35863,37 @@
         <v>20</v>
       </c>
       <c r="G35" s="4" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>2017</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>2018</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>2019</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>2020</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>2021</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>2022</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -35881,7 +35907,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>168</v>
@@ -35981,46 +36007,46 @@
         <v>2</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>132</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="N38" s="4" t="s">
+        <v>2025</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="P38" s="4" t="s">
         <v>2026</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>2000</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>2027</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>21</v>
@@ -36031,7 +36057,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>70</v>
@@ -36043,13 +36069,13 @@
         <v>20</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>2029</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>2030</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>20</v>
@@ -36061,7 +36087,7 @@
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N39" s="4" t="s">
         <v>20</v>
@@ -36091,10 +36117,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB5B31-E8C3-4FF7-8517-A827D5A90B61}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36178,46 +36204,46 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="D2" t="s">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>2075</v>
+        <v>2069</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>707</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2078</v>
+        <v>2072</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>402</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>394</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>408</v>
@@ -36231,46 +36257,46 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>2070</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>2076</v>
       </c>
-      <c r="D3" t="s">
-        <v>2081</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>2076</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>2072</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2074</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>2082</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>2083</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>241</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>401</v>
@@ -36284,46 +36310,46 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="D4" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>674</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>414</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>673</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>416</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>457</v>
@@ -36337,49 +36363,49 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="D5" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>546</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>414</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>674</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>673</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>416</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -36390,49 +36416,49 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="D6" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>457</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>2093</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>2094</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>2098</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2099</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>674</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>2102</v>
+        <v>2140</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -36443,49 +36469,49 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="D7" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>241</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>394</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>401</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>2074</v>
+        <v>2068</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>2076</v>
+        <v>2070</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>2077</v>
+        <v>2071</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -36496,46 +36522,46 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="D8" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2104</v>
+        <v>2097</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>457</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>674</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>414</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>416</v>
@@ -36552,7 +36578,7 @@
         <v>1623</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>1623</v>
@@ -36564,34 +36590,34 @@
         <v>814</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>2115</v>
+        <v>2108</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>351</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>1656</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>2117</v>
+        <v>2110</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>2118</v>
+        <v>2111</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>2119</v>
+        <v>2112</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>2120</v>
+        <v>2113</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>2121</v>
+        <v>2114</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>2122</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -36623,7 +36649,7 @@
         <v>386</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>379</v>
@@ -36635,7 +36661,7 @@
         <v>1644</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>1280</v>
@@ -36676,13 +36702,13 @@
         <v>1644</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>1473</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>1280</v>
@@ -36729,13 +36755,13 @@
         <v>1644</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>2125</v>
+        <v>2118</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>1473</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>2124</v>
+        <v>2117</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>1280</v>
@@ -36776,19 +36802,19 @@
         <v>1078</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>2126</v>
+        <v>2119</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>1653</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>810</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>2128</v>
+        <v>2121</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>1654</v>
@@ -36800,7 +36826,7 @@
         <v>1655</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>2116</v>
+        <v>2109</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>1656</v>
@@ -36817,22 +36843,22 @@
         <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>2032</v>
+        <v>2130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>501</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>502</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>330</v>
@@ -36864,22 +36890,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>2033</v>
+        <v>2131</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>328</v>
@@ -36888,10 +36914,10 @@
         <v>329</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>98</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>330</v>
@@ -36900,10 +36926,10 @@
         <v>331</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>116</v>
@@ -36922,15 +36948,17 @@
       <c r="C16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>101</v>
+      <c r="D16" s="7" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>328</v>
@@ -36945,22 +36973,22 @@
         <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>331</v>
+        <v>498</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>97</v>
+        <v>344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>345</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1957</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -36968,20 +36996,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>2133</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>502</v>
+        <v>349</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>103</v>
@@ -37002,10 +37032,10 @@
         <v>329</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>344</v>
@@ -37019,28 +37049,28 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>510</v>
+        <v>2134</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1911</v>
+        <v>2136</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>85</v>
@@ -37060,11 +37090,11 @@
       <c r="O18" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>145</v>
+      <c r="P18" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -37072,28 +37102,28 @@
         <v>1513</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2044</v>
+        <v>2135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1951</v>
+        <v>2136</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>85</v>
@@ -37113,11 +37143,11 @@
       <c r="O19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>145</v>
+      <c r="P19" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -37231,52 +37261,52 @@
         <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>2044</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>2045</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>2046</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="7" t="s">
         <v>2047</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="N22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>2049</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>2050</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>2051</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -37284,225 +37314,227 @@
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="5" t="s">
-        <v>2130</v>
+      <c r="E23" s="13" t="s">
+        <v>1621</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>498</v>
+        <v>1660</v>
       </c>
       <c r="L23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>498</v>
+        <v>627</v>
       </c>
       <c r="N23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="P23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>1</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>2053</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>20</v>
+      <c r="Q23" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>498</v>
+        <v>334</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>722</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1963</v>
+        <v>2138</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>498</v>
+      <c r="D25" s="4"/>
+      <c r="E25" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>113</v>
+        <v>240</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>70</v>
+        <v>1726</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>1965</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="7" t="s">
-        <v>1661</v>
+      <c r="D26" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1661</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>319</v>
+        <v>81</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1726</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>257</v>
+        <v>141</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>1667</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1523</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1702</v>
+        <v>2051</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1715</v>
+        <v>2122</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>81</v>
@@ -37511,81 +37543,79 @@
         <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="O27" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M27" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>2129</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -37596,47 +37626,47 @@
         <v>468</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>582</v>
+        <v>371</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>583</v>
+        <v>64</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>585</v>
+        <v>73</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -37644,50 +37674,52 @@
         <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>2123</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>483</v>
+      </c>
       <c r="E30" s="5" t="s">
-        <v>2130</v>
+        <v>2123</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>292</v>
+        <v>484</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>290</v>
+        <v>485</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>586</v>
+        <v>486</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>587</v>
+        <v>487</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>570</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -37695,50 +37727,46 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="5" t="s">
-        <v>2130</v>
+        <v>2124</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>589</v>
+        <v>2054</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>371</v>
+        <v>2055</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>64</v>
+        <v>2056</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>590</v>
+        <v>2057</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>73</v>
+        <v>2058</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>281</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -37746,52 +37774,46 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>2130</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>2130</v>
+        <v>2124</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>484</v>
+        <v>2060</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>485</v>
+        <v>2061</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>486</v>
+        <v>2062</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>487</v>
+        <v>2063</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>488</v>
+        <v>2064</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>489</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -37799,306 +37821,116 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>2141</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1621</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>2057</v>
+      <c r="G33" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2058</v>
+        <v>2139</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>2059</v>
+        <v>241</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>2060</v>
+        <v>814</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2061</v>
+        <v>2111</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>2064</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="B34" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>2064</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2071</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>2064</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>2063</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>2064</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>2065</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>2066</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>2067</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="D34" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>2111</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>2112</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="4" t="s">
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="4" t="s">
         <v>1245</v>
       </c>
-      <c r="P38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>2113</v>
+      <c r="P34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>2106</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C29" r:id="rId1" xr:uid="{31CEDC4E-D201-45A3-BEF3-C08DD806EB09}"/>
-    <hyperlink ref="C37" r:id="rId2" xr:uid="{CF03EF6F-4302-44AD-ACEF-A5D9F644E8EB}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{3EB998E8-9BF8-499A-B62F-21E7DDD4B984}"/>
-    <hyperlink ref="C31" r:id="rId4" xr:uid="{723F0F0D-E964-4399-9B1A-9E9BCBE070AA}"/>
-    <hyperlink ref="C32" r:id="rId5" xr:uid="{24FD9832-B259-4254-B332-201866E001A7}"/>
-    <hyperlink ref="E32" r:id="rId6" xr:uid="{ABC2410D-AE80-4393-B293-7F49DA972464}"/>
-    <hyperlink ref="E31" r:id="rId7" xr:uid="{18B3C913-CFC3-44BC-A788-CC8BBA5815A3}"/>
-    <hyperlink ref="E30" r:id="rId8" xr:uid="{28A6C406-3981-41C4-B277-C7CCEB72A90B}"/>
-    <hyperlink ref="E29" r:id="rId9" xr:uid="{77FEFD38-3BCC-4151-ABBA-019964019C50}"/>
-    <hyperlink ref="E24" r:id="rId10" xr:uid="{CE36D556-C1C3-4D5D-9D32-A7A4B949059D}"/>
-    <hyperlink ref="E23" r:id="rId11" xr:uid="{3980853C-AEF4-477C-AF55-CB391FA1B6CA}"/>
-    <hyperlink ref="E22" r:id="rId12" xr:uid="{091F2972-E9D2-4258-B556-830316C52B0B}"/>
-    <hyperlink ref="C22" r:id="rId13" xr:uid="{DF182F09-E8AC-4ADA-8741-DA69BE8B1CAE}"/>
-    <hyperlink ref="C23" r:id="rId14" xr:uid="{509CE410-6C21-42A0-88A7-02119BEB0A28}"/>
-    <hyperlink ref="C24" r:id="rId15" xr:uid="{B74BB6E1-82FC-4323-B908-62EB1455C73C}"/>
+    <hyperlink ref="C28" r:id="rId1" xr:uid="{3EB998E8-9BF8-499A-B62F-21E7DDD4B984}"/>
+    <hyperlink ref="C29" r:id="rId2" xr:uid="{723F0F0D-E964-4399-9B1A-9E9BCBE070AA}"/>
+    <hyperlink ref="C30" r:id="rId3" xr:uid="{24FD9832-B259-4254-B332-201866E001A7}"/>
+    <hyperlink ref="E30" r:id="rId4" xr:uid="{ABC2410D-AE80-4393-B293-7F49DA972464}"/>
+    <hyperlink ref="E29" r:id="rId5" xr:uid="{18B3C913-CFC3-44BC-A788-CC8BBA5815A3}"/>
+    <hyperlink ref="E28" r:id="rId6" xr:uid="{28A6C406-3981-41C4-B277-C7CCEB72A90B}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{091F2972-E9D2-4258-B556-830316C52B0B}"/>
+    <hyperlink ref="C22" r:id="rId8" xr:uid="{DF182F09-E8AC-4ADA-8741-DA69BE8B1CAE}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{509CE410-6C21-42A0-88A7-02119BEB0A28}"/>
+    <hyperlink ref="C33" r:id="rId10" xr:uid="{662AE348-0094-427B-8025-9B4688C3C610}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2874FC-3E85-405F-92A9-F28A38083CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10874" uniqueCount="2142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10878" uniqueCount="2143">
   <si>
     <t>type</t>
   </si>
@@ -6442,9 +6441,6 @@
     <t>Спартак 2:1 Сочи (Э. Барко 16' (пен), 90+7' (пен) - Д. Васильев 42')</t>
   </si>
   <si>
-    <t>Динамо Махачкала : Динамо Москва ( ''' - ''')</t>
-  </si>
-  <si>
     <t>На каком месте находится Спартак после семи туров?</t>
   </si>
   <si>
@@ -6467,12 +6463,18 @@
   </si>
   <si>
     <t>Кто из игроков Динамо и Спартака не был вызван в свою сборную в эту паузу?</t>
+  </si>
+  <si>
+    <t>7  голов в 7 матчах</t>
+  </si>
+  <si>
+    <t>Динамо Махачкала 1:0 Динамо Москва ( М. Хоссейннежад 74')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6894,7 +6896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8942,14 +8944,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10825,38 +10827,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="E29" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="E32" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="C34" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="C35" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="E35" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C27" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="C33" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="C34" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="C35" r:id="rId24"/>
+    <hyperlink ref="E35" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -12675,38 +12677,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-    <hyperlink ref="E31" r:id="rId19" xr:uid="{00000000-0004-0000-0700-000012000000}"/>
-    <hyperlink ref="C32" r:id="rId20" xr:uid="{00000000-0004-0000-0700-000013000000}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-0700-000014000000}"/>
-    <hyperlink ref="C33" r:id="rId22" xr:uid="{00000000-0004-0000-0700-000015000000}"/>
-    <hyperlink ref="E33" r:id="rId23" xr:uid="{00000000-0004-0000-0700-000016000000}"/>
-    <hyperlink ref="C34" r:id="rId24" xr:uid="{00000000-0004-0000-0700-000017000000}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0700-000018000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="C32" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="C33" r:id="rId22"/>
+    <hyperlink ref="E33" r:id="rId23"/>
+    <hyperlink ref="C34" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14429,30 +14431,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0800-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0800-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0800-000008000000}"/>
-    <hyperlink ref="C25" r:id="rId10" xr:uid="{00000000-0004-0000-0800-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0800-00000A000000}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0800-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{00000000-0004-0000-0800-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId14" xr:uid="{00000000-0004-0000-0800-00000D000000}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0800-00000E000000}"/>
-    <hyperlink ref="C32" r:id="rId16" xr:uid="{00000000-0004-0000-0800-00000F000000}"/>
-    <hyperlink ref="E32" r:id="rId17" xr:uid="{00000000-0004-0000-0800-000010000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="C30" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="C32" r:id="rId16"/>
+    <hyperlink ref="E32" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -16481,36 +16483,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="E31" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
-    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
-    <hyperlink ref="C38" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="E38" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C31" r:id="rId16"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
+    <hyperlink ref="C34" r:id="rId21"/>
+    <hyperlink ref="C38" r:id="rId22"/>
+    <hyperlink ref="E38" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
@@ -18804,31 +18806,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
@@ -20016,7 +20018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21976,33 +21978,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="C27" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
-    <hyperlink ref="E29" r:id="rId14" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
-    <hyperlink ref="E31" r:id="rId16" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
-    <hyperlink ref="C36" r:id="rId17" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
-    <hyperlink ref="E36" r:id="rId18" xr:uid="{00000000-0004-0000-0C00-000011000000}"/>
-    <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0C00-000012000000}"/>
-    <hyperlink ref="E37" r:id="rId20" xr:uid="{00000000-0004-0000-0C00-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="C22" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="E31" r:id="rId16"/>
+    <hyperlink ref="C36" r:id="rId17"/>
+    <hyperlink ref="E36" r:id="rId18"/>
+    <hyperlink ref="C37" r:id="rId19"/>
+    <hyperlink ref="E37" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23564,30 +23566,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="C27" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
-    <hyperlink ref="E28" r:id="rId15" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
-    <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="C23" r:id="rId9"/>
+    <hyperlink ref="E23" r:id="rId10"/>
+    <hyperlink ref="C24" r:id="rId11"/>
+    <hyperlink ref="E24" r:id="rId12"/>
+    <hyperlink ref="C27" r:id="rId13"/>
+    <hyperlink ref="C28" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="E29" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25361,19 +25363,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId4"/>
+    <hyperlink ref="C28" r:id="rId5"/>
+    <hyperlink ref="E28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -26614,15 +26616,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -29106,27 +29108,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E43" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E44" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C45" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E45" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E47" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C42" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C43" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C46" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E43" r:id="rId3"/>
+    <hyperlink ref="C44" r:id="rId4"/>
+    <hyperlink ref="E44" r:id="rId5"/>
+    <hyperlink ref="C45" r:id="rId6"/>
+    <hyperlink ref="E45" r:id="rId7"/>
+    <hyperlink ref="E46" r:id="rId8"/>
+    <hyperlink ref="E47" r:id="rId9"/>
+    <hyperlink ref="C42" r:id="rId10"/>
+    <hyperlink ref="C43" r:id="rId11"/>
+    <hyperlink ref="C46" r:id="rId12"/>
+    <hyperlink ref="C47" r:id="rId13"/>
+    <hyperlink ref="E42" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29194,7 +29196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29262,7 +29264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29330,7 +29332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -31764,31 +31766,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C27" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C35" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C33" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C32" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C37" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="E29" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C43" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C41" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C40" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C39" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C46" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="E46" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="E41" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C23" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
+    <hyperlink ref="C26" r:id="rId6"/>
+    <hyperlink ref="E25" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C35" r:id="rId9"/>
+    <hyperlink ref="C34" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="C32" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E34" r:id="rId16"/>
+    <hyperlink ref="C37" r:id="rId17"/>
+    <hyperlink ref="E29" r:id="rId18"/>
+    <hyperlink ref="C43" r:id="rId19"/>
+    <hyperlink ref="C41" r:id="rId20"/>
+    <hyperlink ref="C40" r:id="rId21"/>
+    <hyperlink ref="C39" r:id="rId22"/>
+    <hyperlink ref="C46" r:id="rId23"/>
+    <hyperlink ref="E46" r:id="rId24"/>
+    <hyperlink ref="E41" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
@@ -31796,7 +31798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB237B7-725D-4A48-B8C4-697B6B21E41C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -33974,16 +33976,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{CB962AC2-60A0-4F3D-9D3C-19BBA2B1D81F}"/>
-    <hyperlink ref="E32" r:id="rId2" xr:uid="{5936C92C-F470-4256-958A-3C73F5CD0D03}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{F9B50BCC-B3CC-4763-9ADA-573F4F711F27}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{1ED3F79A-2956-452D-B744-7DCD9EBC8916}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{662F956F-AB9C-4CF1-B929-AABDF1F58547}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{15F0BB3F-F64B-4611-A4FC-D97498E2451E}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{308D9F18-8FF9-4443-B012-A6370BBF452E}"/>
-    <hyperlink ref="E25" r:id="rId8" xr:uid="{53BD2440-7AB1-4DF7-9A2A-5E96209C5B86}"/>
-    <hyperlink ref="E38" r:id="rId9" xr:uid="{83973F44-49CD-40AE-A0B3-7C6953260A5D}"/>
-    <hyperlink ref="C38" r:id="rId10" xr:uid="{E652A805-DC66-451D-8549-7C5890DECF16}"/>
+    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="E32" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E24" r:id="rId7"/>
+    <hyperlink ref="E25" r:id="rId8"/>
+    <hyperlink ref="E38" r:id="rId9"/>
+    <hyperlink ref="C38" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -33991,7 +33993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEE7289-7DB5-4735-BBDC-D575E2435011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -36104,23 +36106,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{4272F3D7-2896-4A66-9340-72CCF5817F86}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{4BE6897F-A811-41AE-828B-D13847134166}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{C99303CD-2EDB-4237-AFD6-448836EE3413}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{E41CA339-0946-4A9C-894C-FE5E186A9086}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{BAD016A2-E7CA-4E99-813F-C45BC6B1F209}"/>
-    <hyperlink ref="E22" r:id="rId6" xr:uid="{5C5283B3-F54A-4717-B1AA-4E90AC63A8C3}"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
+    <hyperlink ref="E22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EB5B31-E8C3-4FF7-8517-A827D5A90B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36452,7 +36454,7 @@
         <v>2095</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>2096</v>
@@ -37002,7 +37004,7 @@
         <v>120</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>2133</v>
+        <v>2142</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>500</v>
@@ -37049,13 +37051,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>97</v>
@@ -37102,22 +37104,22 @@
         <v>1513</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>2136</v>
+        <v>1317</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>1172</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>1173</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>89</v>
@@ -37132,10 +37134,10 @@
         <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>83</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>141</v>
+        <v>1171</v>
       </c>
       <c r="N19" s="7" t="s">
         <v>87</v>
@@ -37365,10 +37367,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>556</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>518</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>70</v>
@@ -37415,12 +37420,14 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>2141</v>
+      </c>
       <c r="E25" s="7" t="s">
         <v>1661</v>
       </c>
@@ -37729,8 +37736,11 @@
       <c r="B31" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>20</v>
+      <c r="C31" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>2123</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -37776,8 +37786,11 @@
       <c r="B32" s="2" t="s">
         <v>2124</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>20</v>
+      <c r="C32" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>2123</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -37821,7 +37834,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2123</v>
@@ -37839,7 +37852,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
@@ -37921,23 +37934,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" xr:uid="{3EB998E8-9BF8-499A-B62F-21E7DDD4B984}"/>
-    <hyperlink ref="C29" r:id="rId2" xr:uid="{723F0F0D-E964-4399-9B1A-9E9BCBE070AA}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{24FD9832-B259-4254-B332-201866E001A7}"/>
-    <hyperlink ref="E30" r:id="rId4" xr:uid="{ABC2410D-AE80-4393-B293-7F49DA972464}"/>
-    <hyperlink ref="E29" r:id="rId5" xr:uid="{18B3C913-CFC3-44BC-A788-CC8BBA5815A3}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{28A6C406-3981-41C4-B277-C7CCEB72A90B}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{091F2972-E9D2-4258-B556-830316C52B0B}"/>
-    <hyperlink ref="C22" r:id="rId8" xr:uid="{DF182F09-E8AC-4ADA-8741-DA69BE8B1CAE}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{509CE410-6C21-42A0-88A7-02119BEB0A28}"/>
-    <hyperlink ref="C33" r:id="rId10" xr:uid="{662AE348-0094-427B-8025-9B4688C3C610}"/>
+    <hyperlink ref="C28" r:id="rId1"/>
+    <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="E30" r:id="rId4"/>
+    <hyperlink ref="E29" r:id="rId5"/>
+    <hyperlink ref="E28" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C22" r:id="rId8"/>
+    <hyperlink ref="C23" r:id="rId9"/>
+    <hyperlink ref="C33" r:id="rId10"/>
+    <hyperlink ref="E31" r:id="rId11"/>
+    <hyperlink ref="E32" r:id="rId12"/>
+    <hyperlink ref="C32" r:id="rId13"/>
+    <hyperlink ref="C31" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -39709,22 +39726,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="C33" r:id="rId8" xr:uid="{997CB8C4-91C7-4431-8BE1-12FBF2EF8E69}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{972A0BCA-DAB4-4F31-B07C-E2B034610C0F}"/>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6"/>
+    <hyperlink ref="E32" r:id="rId7"/>
+    <hyperlink ref="C33" r:id="rId8"/>
+    <hyperlink ref="E33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41829,31 +41846,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C35" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C36" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C38" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="E38" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C39" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="E40" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="E17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="E19" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="E20" r:id="rId9"/>
+    <hyperlink ref="C35" r:id="rId10"/>
+    <hyperlink ref="C36" r:id="rId11"/>
+    <hyperlink ref="E36" r:id="rId12"/>
+    <hyperlink ref="C38" r:id="rId13"/>
+    <hyperlink ref="E38" r:id="rId14"/>
+    <hyperlink ref="C39" r:id="rId15"/>
+    <hyperlink ref="E39" r:id="rId16"/>
+    <hyperlink ref="C40" r:id="rId17"/>
+    <hyperlink ref="E40" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -43925,13 +43942,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E29" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="E30" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C35" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C37" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="E37" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="E30" r:id="rId4"/>
+    <hyperlink ref="C35" r:id="rId5"/>
+    <hyperlink ref="C37" r:id="rId6"/>
+    <hyperlink ref="E37" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -6411,9 +6411,6 @@
     <t>56 очков</t>
   </si>
   <si>
-    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_spartak_dinamo_quest.webp</t>
-  </si>
-  <si>
     <t>С какой из этих сборных Россия сыграет в эту международную паузу?</t>
   </si>
   <si>
@@ -6469,6 +6466,9 @@
   </si>
   <si>
     <t>Динамо Махачкала 1:0 Динамо Москва ( М. Хоссейннежад 74')</t>
+  </si>
+  <si>
+    <t>https://amaranth64.github.io/RPL_V2/matchday/images/mt_dinamo_spartak_quest.webp</t>
   </si>
 </sst>
 </file>
@@ -34844,7 +34844,7 @@
         <v>112</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>101</v>
@@ -34897,7 +34897,7 @@
         <v>70</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>501</v>
@@ -34950,7 +34950,7 @@
         <v>112</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>112</v>
@@ -35317,7 +35317,7 @@
         <v>556</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>1661</v>
@@ -36122,7 +36122,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36454,7 +36454,7 @@
         <v>2095</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>2096</v>
@@ -36845,7 +36845,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>501</v>
@@ -36898,7 +36898,7 @@
         <v>120</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>105</v>
@@ -36951,7 +36951,7 @@
         <v>97</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>330</v>
@@ -36998,13 +36998,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>500</v>
@@ -37051,13 +37051,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>97</v>
@@ -37104,7 +37104,7 @@
         <v>1513</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>120</v>
@@ -37266,13 +37266,13 @@
         <v>2052</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>2043</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
@@ -37319,7 +37319,7 @@
         <v>2050</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="13" t="s">
@@ -37367,7 +37367,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>556</v>
@@ -37420,13 +37420,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>556</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>1661</v>
@@ -37582,11 +37582,11 @@
         <v>468</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>20</v>
@@ -37633,11 +37633,11 @@
         <v>468</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>20</v>
@@ -37684,13 +37684,13 @@
         <v>482</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>483</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>20</v>
@@ -37734,13 +37734,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>20</v>
@@ -37784,13 +37784,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>20</v>
@@ -37834,10 +37834,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>1621</v>
@@ -37852,7 +37852,7 @@
         <v>20</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>20</v>
@@ -37934,20 +37934,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1"/>
-    <hyperlink ref="C29" r:id="rId2"/>
-    <hyperlink ref="C30" r:id="rId3"/>
-    <hyperlink ref="E30" r:id="rId4"/>
-    <hyperlink ref="E29" r:id="rId5"/>
-    <hyperlink ref="E28" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C31" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="C33" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C29" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
     <hyperlink ref="C22" r:id="rId8"/>
-    <hyperlink ref="C23" r:id="rId9"/>
-    <hyperlink ref="C33" r:id="rId10"/>
-    <hyperlink ref="E31" r:id="rId11"/>
-    <hyperlink ref="E32" r:id="rId12"/>
-    <hyperlink ref="C32" r:id="rId13"/>
-    <hyperlink ref="C31" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId9"/>
+    <hyperlink ref="E28" r:id="rId10"/>
+    <hyperlink ref="E29" r:id="rId11"/>
+    <hyperlink ref="E30" r:id="rId12"/>
+    <hyperlink ref="E31" r:id="rId13"/>
+    <hyperlink ref="E32" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40929427-9608-4E2F-81BD-26DB5834495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C83252-0D41-4B10-BD30-BD48B09D5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37785,7 +37785,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C83252-0D41-4B10-BD30-BD48B09D5135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB0BE5-B819-491C-BAEB-C196DD5AE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -20,28 +20,29 @@
     <sheet name="mt_cska_krasnodar" sheetId="25" r:id="rId5"/>
     <sheet name="mt_dinamo_spartak" sheetId="26" r:id="rId6"/>
     <sheet name="mt_krasnodar_zenit" sheetId="4" r:id="rId7"/>
-    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId8"/>
-    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId9"/>
-    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId10"/>
-    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId11"/>
-    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId12"/>
-    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId13"/>
-    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId14"/>
-    <sheet name="mt_itogi" sheetId="10" r:id="rId15"/>
-    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId16"/>
-    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId17"/>
-    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId18"/>
-    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId19"/>
-    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId20"/>
-    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId21"/>
-    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId22"/>
+    <sheet name="mt_cska_baltika" sheetId="27" r:id="rId8"/>
+    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId9"/>
+    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId10"/>
+    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId11"/>
+    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId12"/>
+    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId13"/>
+    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId14"/>
+    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId15"/>
+    <sheet name="mt_itogi" sheetId="10" r:id="rId16"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId17"/>
+    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId18"/>
+    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId19"/>
+    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId20"/>
+    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId21"/>
+    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId22"/>
+    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10743" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="2191">
   <si>
     <t>type</t>
   </si>
@@ -6296,13 +6297,331 @@
   </si>
   <si>
     <t>Джон Кордоба - 139 мячей, Александр Соболев - 107 мячей</t>
+  </si>
+  <si>
+    <t>С кем сыграет Балтика в следующем туре?</t>
+  </si>
+  <si>
+    <t>11 тур. 05.10.2025. 16:30</t>
+  </si>
+  <si>
+    <t>11 тур. 05.10.2025. 19:00</t>
+  </si>
+  <si>
+    <t>На каком месте находится ЦСКА после девяти туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится Балтика после девяти туров?</t>
+  </si>
+  <si>
+    <t>С какой командой играла Балтика в прошлом туре?</t>
+  </si>
+  <si>
+    <t>Кто является лучшим бомбардиром РПЛ после девяти туров?</t>
+  </si>
+  <si>
+    <t>На каком месте  финишировала Балтика в РПЛ-2024/25?</t>
+  </si>
+  <si>
+    <t>69 очков</t>
+  </si>
+  <si>
+    <t>baltika_luna</t>
+  </si>
+  <si>
+    <t>25-летний (02.01.2000) венесуэльский защитник. Присоединился зимой 2023 из «Каракаса» (Венесуэла)</t>
+  </si>
+  <si>
+    <t>Диего Луна</t>
+  </si>
+  <si>
+    <t>Кевин Андраде</t>
+  </si>
+  <si>
+    <t>Александр Филин</t>
+  </si>
+  <si>
+    <t>Натан Гассама</t>
+  </si>
+  <si>
+    <t>Аймане Мурид</t>
+  </si>
+  <si>
+    <t>Чинонсо Оффор</t>
+  </si>
+  <si>
+    <t>baltika_civic</t>
+  </si>
+  <si>
+    <t>29-летний (28.05.1996) боснийский левый защитник. Подписан 1 июля 2025 после ухода из «Ференцвароша» (свободный трансфер)</t>
+  </si>
+  <si>
+    <t>Элдар Цивич</t>
+  </si>
+  <si>
+    <t>Брайан Гил</t>
+  </si>
+  <si>
+    <t>Тентон Енне</t>
+  </si>
+  <si>
+    <t>Амир Мохаммад</t>
+  </si>
+  <si>
+    <t>Данил Уткин</t>
+  </si>
+  <si>
+    <t>baltika_mourid</t>
+  </si>
+  <si>
+    <t>25-летний (07.05.2000) марокканский центральный хавбек. Перешёл 30 июня 2025 из «Юнион Туарга» за ≈ €0,9 млн</t>
+  </si>
+  <si>
+    <t>Николай Титков</t>
+  </si>
+  <si>
+    <t>baltika_utkin</t>
+  </si>
+  <si>
+    <t>25-летний (12.10.1999) российский центральный полузащитник. Арендован у «Ростова» 30 июня 2025 на один сезон</t>
+  </si>
+  <si>
+    <t>baltika_yenne</t>
+  </si>
+  <si>
+    <t>25-летний (07.07.2000) нигерийский левый вингер. Перешёл 30 июня 2025 свободным трансфером из «Арарат-Армения»</t>
+  </si>
+  <si>
+    <t>Андрей Мендель</t>
+  </si>
+  <si>
+    <t>baltika_offor</t>
+  </si>
+  <si>
+    <t>24-летний (28.06.2001) колумбийско-сальвадорский нападающий. Перешёл в «Балтику» 18 января 2025 из «Депортес Толима» за ≈ €1,5 млн</t>
+  </si>
+  <si>
+    <t>cska_torop</t>
+  </si>
+  <si>
+    <t>21-летний (07.11.2003) российский вратарь. Поднялся из академии и подписал профессиональный контракт с ЦСКА в 2021 году</t>
+  </si>
+  <si>
+    <t>cska_ryadno</t>
+  </si>
+  <si>
+    <t>Михаил Рядно</t>
+  </si>
+  <si>
+    <t>cska_savinov</t>
+  </si>
+  <si>
+    <t>cska_glebov</t>
+  </si>
+  <si>
+    <t>cska_mukhin</t>
+  </si>
+  <si>
+    <t>cska_ushakov</t>
+  </si>
+  <si>
+    <t>cska_lukin</t>
+  </si>
+  <si>
+    <t>cska_rocha</t>
+  </si>
+  <si>
+    <t>cska_moises</t>
+  </si>
+  <si>
+    <t>cska_khellven</t>
+  </si>
+  <si>
+    <t>cska_gajic</t>
+  </si>
+  <si>
+    <t>cska_reyvandi</t>
+  </si>
+  <si>
+    <t>cska_gaich</t>
+  </si>
+  <si>
+    <t>stadium</t>
+  </si>
+  <si>
+    <t>stadium_kaliningrad</t>
+  </si>
+  <si>
+    <t>Ростех</t>
+  </si>
+  <si>
+    <t>Калининград</t>
+  </si>
+  <si>
+    <t>Искра</t>
+  </si>
+  <si>
+    <t>Темп</t>
+  </si>
+  <si>
+    <t>Красная звезда</t>
+  </si>
+  <si>
+    <t>talisman</t>
+  </si>
+  <si>
+    <t>bk_maskot</t>
+  </si>
+  <si>
+    <t>Зубр</t>
+  </si>
+  <si>
+    <t>Лисица</t>
+  </si>
+  <si>
+    <t>Чайка</t>
+  </si>
+  <si>
+    <t>Дятел</t>
+  </si>
+  <si>
+    <t>Медведь</t>
+  </si>
+  <si>
+    <t>Суслик</t>
+  </si>
+  <si>
+    <t>85 голов</t>
+  </si>
+  <si>
+    <t>bk_silin</t>
+  </si>
+  <si>
+    <t>Дмитрий Силин</t>
+  </si>
+  <si>
+    <t>Андрей Дементьев</t>
+  </si>
+  <si>
+    <t>Сергей Булатов</t>
+  </si>
+  <si>
+    <t>Андрей Малай</t>
+  </si>
+  <si>
+    <t>Егор Крыштафович</t>
+  </si>
+  <si>
+    <t>Виталий Каленкович</t>
+  </si>
+  <si>
+    <t>pic_quest</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Псков</t>
+  </si>
+  <si>
+    <t>Архангельск</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Новгород</t>
+  </si>
+  <si>
+    <t>Как назывался еврокубок в котором Балтика провела свой единственный евросезон?</t>
+  </si>
+  <si>
+    <t>logo_uefa</t>
+  </si>
+  <si>
+    <t>cup_intertoto</t>
+  </si>
+  <si>
+    <t>Кубок Интертото</t>
+  </si>
+  <si>
+    <t>Кубок УЕФА</t>
+  </si>
+  <si>
+    <t>Лига Европы</t>
+  </si>
+  <si>
+    <t>Лига Конференций</t>
+  </si>
+  <si>
+    <t>Кубок кубков</t>
+  </si>
+  <si>
+    <t>Лига Чемпионов</t>
+  </si>
+  <si>
+    <t>Правда, что Балтика самый западный клуб, когда-либо игравший в чемпионатах России?</t>
+  </si>
+  <si>
+    <t>На базе какого предприятия был открыт клуб Балтика?</t>
+  </si>
+  <si>
+    <t>Лов рыбы</t>
+  </si>
+  <si>
+    <t>Янтарная продукция</t>
+  </si>
+  <si>
+    <t>Автомобилестроение</t>
+  </si>
+  <si>
+    <t>Сельское хозяйство</t>
+  </si>
+  <si>
+    <t>Скотоводство</t>
+  </si>
+  <si>
+    <t>Танковый завод</t>
+  </si>
+  <si>
+    <t>Правда, что игрок Балтики Брайан Гил является олимпийским чемпионом 2020 года?</t>
+  </si>
+  <si>
+    <t>baltika_gil</t>
+  </si>
+  <si>
+    <t>Кто является самым возрастным игроком Балтики?</t>
+  </si>
+  <si>
+    <t>Юрий Ковалёв</t>
+  </si>
+  <si>
+    <t>Сергей Пряхин</t>
+  </si>
+  <si>
+    <t>Кто является спортивным талиманом Балтика?</t>
+  </si>
+  <si>
+    <t>Кто является самым результативным бомбардиром Балтика  в чемпионатах России?</t>
+  </si>
+  <si>
+    <t>Из какого российского города Балтика?</t>
+  </si>
+  <si>
+    <t>Как называется стадион на котором Балтика проводит домашние матчи?</t>
+  </si>
+  <si>
+    <t>Как зовут главного тренера Балтики?</t>
+  </si>
+  <si>
+    <t>Кто лидирует в РПЛ после 9 туров?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6328,6 +6647,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -6378,7 +6704,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6420,6 +6746,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8778,6 +9107,2135 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A1:XFD40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="125" customWidth="1"/>
+    <col min="3" max="3" width="179" customWidth="1"/>
+    <col min="5" max="5" width="179" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="26" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
+    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
+    <hyperlink ref="C35" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
+    <hyperlink ref="C36" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
+    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
+    <hyperlink ref="C38" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
+    <hyperlink ref="E38" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
+    <hyperlink ref="C39" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
+    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
+    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
+    <hyperlink ref="E40" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -10684,7 +13142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -12534,7 +14992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -14280,7 +16738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
@@ -16338,7 +18796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -18656,7 +21114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -19844,7 +22302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -21830,7 +24288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -23415,7 +25873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -25196,1255 +27654,6 @@
     <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
     <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
     <hyperlink ref="E28" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:Q23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="A1:Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1385</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1387</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>1388</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1391</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>1404</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1401</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>739</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>1408</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>1402</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>1051</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>1083</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>1084</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>1085</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>1086</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>1426</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>1427</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1420</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>764</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28955,6 +30164,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="A1:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -29022,7 +31480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -29090,7 +31548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -33823,8 +36281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A8:XFD13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37784,8 +40242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A1:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39358,6 +41816,2105 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B99C-50D2-44AF-83D4-EDC42EF00C51}">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B15:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>2097</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2107</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2106</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1910</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>2188</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>4</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2183</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -41142,2133 +45699,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:XFD40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="125" customWidth="1"/>
-    <col min="3" max="3" width="179" customWidth="1"/>
-    <col min="5" max="5" width="179" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="26" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>2</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>6</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>2</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C35" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C36" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C38" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="E38" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C39" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="E40" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DB0BE5-B819-491C-BAEB-C196DD5AE617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD08A0F-DD7D-471B-9EFB-1270D1721208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -21,28 +21,29 @@
     <sheet name="mt_dinamo_spartak" sheetId="26" r:id="rId6"/>
     <sheet name="mt_krasnodar_zenit" sheetId="4" r:id="rId7"/>
     <sheet name="mt_cska_baltika" sheetId="27" r:id="rId8"/>
-    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId9"/>
-    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId10"/>
-    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId11"/>
-    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId12"/>
-    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId13"/>
-    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId14"/>
-    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId15"/>
-    <sheet name="mt_itogi" sheetId="10" r:id="rId16"/>
-    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId17"/>
-    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId18"/>
-    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId19"/>
-    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId20"/>
-    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId21"/>
-    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId22"/>
-    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId23"/>
+    <sheet name="mt_cska_spartak" sheetId="28" r:id="rId9"/>
+    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId10"/>
+    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId11"/>
+    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId12"/>
+    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId13"/>
+    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId14"/>
+    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId15"/>
+    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId16"/>
+    <sheet name="mt_itogi" sheetId="10" r:id="rId17"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId18"/>
+    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId19"/>
+    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId20"/>
+    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId21"/>
+    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId22"/>
+    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId23"/>
+    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11358" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11970" uniqueCount="2197">
   <si>
     <t>type</t>
   </si>
@@ -6615,6 +6616,24 @@
   </si>
   <si>
     <t>Кто лидирует в РПЛ после 9 туров?</t>
+  </si>
+  <si>
+    <t>12 тур. 18.10.2025. 19:45</t>
+  </si>
+  <si>
+    <t>11 тур. 18.10.2025. 15:15</t>
+  </si>
+  <si>
+    <t>ЦСКА : Балтика ()</t>
+  </si>
+  <si>
+    <t>Спартак : Пари НН</t>
+  </si>
+  <si>
+    <t>На каком месте находится Спартак после десяти туров?</t>
+  </si>
+  <si>
+    <t>21 очко</t>
   </si>
 </sst>
 </file>
@@ -9107,11 +9126,1798 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="78" customWidth="1"/>
+    <col min="3" max="3" width="172" customWidth="1"/>
+    <col min="5" max="5" width="175" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="C33" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:XFD40"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11235,7 +13041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -13142,7 +14948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -14992,7 +16798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -16738,12 +18544,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" activeCellId="14" sqref="A12:XFD13 A16:XFD16 A17:XFD17 A19:XFD19 A18:XFD18 A23:XFD23 A24:XFD24 A25:XFD25 A28:XFD28 A30:XFD30 A31:XFD31 A32:XFD32 A33:XFD33 A37:XFD37 A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18796,7 +20602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -21114,7 +22920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -22302,7 +24108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -24288,7 +26094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -25868,1792 +27674,6 @@
     <hyperlink ref="E28" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
     <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
     <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:Q33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
-    <col min="3" max="3" width="86" customWidth="1"/>
-    <col min="5" max="5" width="86" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1374</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30164,6 +30184,1792 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="3" max="3" width="86" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
+    <hyperlink ref="C23" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
+    <hyperlink ref="E28" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -31412,7 +33218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -31480,7 +33286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -31548,7 +33354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -36281,8 +38087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38407,7 +40213,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD27"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41819,8 +43625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B99C-50D2-44AF-83D4-EDC42EF00C51}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B15:B23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41842,7 +43648,7 @@
     <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -42213,7 +44019,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -42269,7 +44075,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -42325,7 +44131,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -43915,34 +45721,34 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37596C43-5CF7-4071-BC5D-1903FD86A711}">
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B13:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="78" customWidth="1"/>
-    <col min="3" max="3" width="172" customWidth="1"/>
-    <col min="5" max="5" width="175" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="25" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43995,958 +45801,972 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C2" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>2125</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2126</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>2127</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C6" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2036</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>2037</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2040</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>2041</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2042</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>2043</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1646</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>2045</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>2047</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2049</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2050</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C12" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B13" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>935</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>121</v>
+        <v>936</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>937</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>123</v>
+        <v>762</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>124</v>
+        <v>732</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>125</v>
+        <v>938</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>628</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>629</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>95</v>
+        <v>630</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>95</v>
+        <v>630</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>110</v>
+        <v>631</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>111</v>
+        <v>632</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>99</v>
+        <v>608</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>609</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>114</v>
+        <v>611</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>103</v>
+        <v>255</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>105</v>
+        <v>633</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>736</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>737</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>458</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>29</v>
+        <v>459</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>34</v>
+        <v>738</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>36</v>
+        <v>739</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>131</v>
+        <v>740</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>133</v>
+        <v>741</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>742</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>135</v>
+        <v>743</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>42</v>
+        <v>744</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>25</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>138</v>
+        <v>940</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>611</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>611</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>20</v>
+        <v>631</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>58</v>
+        <v>632</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>53</v>
+        <v>256</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>20</v>
+        <v>633</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>61</v>
+        <v>272</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>20</v>
+        <v>639</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>564</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>940</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>513</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>83</v>
+        <v>513</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>142</v>
+        <v>378</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>565</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>143</v>
+        <v>379</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>87</v>
+        <v>458</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>144</v>
+        <v>459</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>89</v>
+        <v>567</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>145</v>
+        <v>568</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>146</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>708</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>149</v>
+        <v>953</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>150</v>
+        <v>954</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>142</v>
+        <v>955</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>144</v>
+        <v>956</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>145</v>
+        <v>957</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>141</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -44954,156 +46774,158 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>757</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>153</v>
+        <v>961</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>154</v>
+        <v>962</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>155</v>
+        <v>963</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>156</v>
+        <v>964</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>157</v>
+        <v>965</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>158</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>56</v>
+        <v>664</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>966</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>980</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>72</v>
+        <v>981</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
+        <v>982</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>169</v>
+        <v>983</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>36</v>
+        <v>984</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>44</v>
+        <v>985</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>61</v>
+        <v>986</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>172</v>
+        <v>987</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -45111,52 +46933,52 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>173</v>
+        <v>992</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>175</v>
+        <v>993</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>994</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>74</v>
+        <v>713</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>177</v>
+        <v>995</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>178</v>
+        <v>996</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -45164,52 +46986,50 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>166</v>
+        <v>997</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>182</v>
+        <v>998</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>183</v>
+        <v>999</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>75</v>
+        <v>931</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>184</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>185</v>
+        <v>1001</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>64</v>
+        <v>1002</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>186</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -45217,52 +47037,52 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
+        <v>1004</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>188</v>
+        <v>1005</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>18</v>
+        <v>994</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>165</v>
+        <v>713</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>189</v>
+        <v>575</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>190</v>
+        <v>1006</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>163</v>
+        <v>275</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>191</v>
+        <v>996</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>192</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -45270,50 +47090,50 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>1008</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
+      <c r="E26" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>194</v>
+        <v>1009</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>196</v>
+        <v>1010</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>197</v>
+        <v>1011</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>198</v>
+        <v>1012</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>199</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -45321,52 +47141,52 @@
         <v>1</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>200</v>
+        <v>1029</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>1030</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>204</v>
+        <v>930</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>205</v>
+        <v>1031</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>206</v>
+        <v>1032</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>207</v>
+        <v>933</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>208</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -45374,328 +47194,601 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>2</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>2192</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>4</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>563</v>
+      <c r="E37" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C33" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{A87CEB5A-A947-4482-84D2-36C292F608A3}"/>
+    <hyperlink ref="C14" r:id="rId2" xr:uid="{B3D0F236-5982-45AC-B081-0D3953DABC79}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{EE272CF4-63C3-4466-BD72-2711DC9EADA7}"/>
+    <hyperlink ref="C19" r:id="rId4" xr:uid="{C79FD258-C14A-4709-B1BD-739E2329B541}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{456A76DE-30A9-4AD4-97D2-230AE40F714C}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{1392A3DD-7AB2-4A12-87E3-B900510A8BCD}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{F533D1F7-1008-44BA-AC9C-70B193493F06}"/>
+    <hyperlink ref="C21" r:id="rId8" xr:uid="{473E4D6E-14DB-405D-A059-0CAC28824BCF}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{8DC2F248-9A16-4D81-94B8-04A85A057CE2}"/>
+    <hyperlink ref="E22" r:id="rId10" xr:uid="{1B198517-0F54-45D6-99BA-2D2548B269CC}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{C299F022-26E5-48DE-A07C-24EEA0E117BC}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{D57D3A4C-D1E3-44B3-8745-8A2173595FCD}"/>
+    <hyperlink ref="C25" r:id="rId13" xr:uid="{FA3E5050-7579-4FE3-B245-66022D591C1B}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{1F90945A-5EBC-4789-833B-501127459070}"/>
+    <hyperlink ref="E26" r:id="rId15" xr:uid="{94A95D5D-343A-4CFE-A72E-E2CD987236B5}"/>
+    <hyperlink ref="C28" r:id="rId16" xr:uid="{214451E0-B377-47C3-99E5-2CF17AD9E5CC}"/>
+    <hyperlink ref="E28" r:id="rId17" xr:uid="{EE6DF856-9230-40B8-92F1-6A618DC048A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD08A0F-DD7D-471B-9EFB-1270D1721208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551ECD9-36E1-4BC1-A006-D352AD0531F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11970" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11924" uniqueCount="2194">
   <si>
     <t>type</t>
   </si>
@@ -6315,9 +6315,6 @@
     <t>На каком месте находится Балтика после девяти туров?</t>
   </si>
   <si>
-    <t>С какой командой играла Балтика в прошлом туре?</t>
-  </si>
-  <si>
     <t>Кто является лучшим бомбардиром РПЛ после девяти туров?</t>
   </si>
   <si>
@@ -6351,12 +6348,6 @@
     <t>Чинонсо Оффор</t>
   </si>
   <si>
-    <t>baltika_civic</t>
-  </si>
-  <si>
-    <t>29-летний (28.05.1996) боснийский левый защитник. Подписан 1 июля 2025 после ухода из «Ференцвароша» (свободный трансфер)</t>
-  </si>
-  <si>
     <t>Элдар Цивич</t>
   </si>
   <si>
@@ -6372,27 +6363,9 @@
     <t>Данил Уткин</t>
   </si>
   <si>
-    <t>baltika_mourid</t>
-  </si>
-  <si>
-    <t>25-летний (07.05.2000) марокканский центральный хавбек. Перешёл 30 июня 2025 из «Юнион Туарга» за ≈ €0,9 млн</t>
-  </si>
-  <si>
     <t>Николай Титков</t>
   </si>
   <si>
-    <t>baltika_utkin</t>
-  </si>
-  <si>
-    <t>25-летний (12.10.1999) российский центральный полузащитник. Арендован у «Ростова» 30 июня 2025 на один сезон</t>
-  </si>
-  <si>
-    <t>baltika_yenne</t>
-  </si>
-  <si>
-    <t>25-летний (07.07.2000) нигерийский левый вингер. Перешёл 30 июня 2025 свободным трансфером из «Арарат-Армения»</t>
-  </si>
-  <si>
     <t>Андрей Мендель</t>
   </si>
   <si>
@@ -6516,9 +6489,6 @@
     <t>Виталий Каленкович</t>
   </si>
   <si>
-    <t>pic_quest</t>
-  </si>
-  <si>
     <t>Санкт-Петербург</t>
   </si>
   <si>
@@ -6634,6 +6604,27 @@
   </si>
   <si>
     <t>21 очко</t>
+  </si>
+  <si>
+    <t>baltika_mokhammad</t>
+  </si>
+  <si>
+    <t>29-летний (23.02.1996) российский (дагестано-афганские корни) левый латераль. Перешёл свободным агентом из «Химок» 10 июля 2024</t>
+  </si>
+  <si>
+    <t>baltika_mendel</t>
+  </si>
+  <si>
+    <t>30-летний (17.04.1995) российский опорный полузащитник</t>
+  </si>
+  <si>
+    <t>Стефан Ковач</t>
+  </si>
+  <si>
+    <t>Владислав Саус</t>
+  </si>
+  <si>
+    <t>25-летний (27.05.2000) нигерийский центрфорвард. Подписан 30 июня 2025 из болгарского «Арда» за ≈ €0,9 млн</t>
   </si>
 </sst>
 </file>
@@ -43623,10 +43614,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B99C-50D2-44AF-83D4-EDC42EF00C51}">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" activeCellId="1" sqref="A14:XFD14 A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43701,7 +43692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -43709,49 +43700,49 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2094</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>2095</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>2097</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>2098</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>2099</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>2100</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>2101</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -43762,13 +43753,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2103</v>
+        <v>2188</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2102</v>
+        <v>2187</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -43780,31 +43771,31 @@
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>2097</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>2105</v>
-      </c>
       <c r="L3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>2106</v>
+        <v>2098</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>2107</v>
+        <v>2095</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -43815,49 +43806,49 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2109</v>
+        <v>2189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2110</v>
+        <v>2190</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2109</v>
+        <v>2189</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2104</v>
+        <v>2191</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>2108</v>
+        <v>2174</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>2097</v>
+        <v>2192</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>2101</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -43868,31 +43859,31 @@
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>20</v>
@@ -43904,13 +43895,13 @@
         <v>20</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>2097</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>2096</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -43921,103 +43912,106 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>2105</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>2114</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="O7" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>2115</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>2114</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>2101</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>2116</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>2117</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2101</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>2105</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>2100</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="Q7" s="4" t="s">
-        <v>2098</v>
-      </c>
+        <v>1919</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -44027,19 +44021,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>2119</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2120</v>
+        <v>1461</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1462</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2119</v>
+        <v>1461</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>2119</v>
+        <v>1461</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>630</v>
@@ -44048,28 +44042,28 @@
         <v>348</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>2121</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>2122</v>
-      </c>
       <c r="N8" s="4" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>2124</v>
+        <v>1915</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>1919</v>
+        <v>258</v>
       </c>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -44083,55 +44077,55 @@
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="D9" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>348</v>
+        <v>632</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>631</v>
+        <v>2114</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>632</v>
+        <v>1463</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>1915</v>
+        <v>2118</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>258</v>
+        <v>1467</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -44139,49 +44133,49 @@
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="D10" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>260</v>
+        <v>1470</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>631</v>
+        <v>2119</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>632</v>
+        <v>264</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>1463</v>
+        <v>1471</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>1466</v>
+        <v>261</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>2127</v>
+        <v>1916</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
@@ -44195,131 +44189,128 @@
         <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>1468</v>
       </c>
-      <c r="D11" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>1468</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>1468</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>1470</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>2128</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>2129</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>2130</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>2131</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>1916</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>1472</v>
       </c>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>1473</v>
+        <v>112</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>2129</v>
+        <v>123</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>2130</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>2132</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>1476</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>2133</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>626</v>
+        <v>490</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>1468</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+        <v>1886</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>2</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>336</v>
+        <v>2085</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>327</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>2086</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>123</v>
+        <v>2087</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>489</v>
@@ -44328,618 +44319,629 @@
         <v>490</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="N13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>1886</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>2085</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q18" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>2077</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>2090</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D20" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>2088</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>2089</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>2190</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2091</v>
+        <v>1896</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>112</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>1485</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>611</v>
+        <v>20</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>1461</v>
+        <v>20</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>256</v>
+        <v>1489</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>1596</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>1598</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1527</v>
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1477</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>1969</v>
+        <v>1478</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>1479</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>1478</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>1484</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>146</v>
-      </c>
+        <v>1485</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>2092</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>2093</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1896</v>
+        <v>1905</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>1906</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>112</v>
       </c>
@@ -44947,93 +44949,90 @@
         <v>20</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>1897</v>
+        <v>1907</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>361</v>
+        <v>1908</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>1485</v>
+        <v>1909</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>352</v>
+        <v>1910</v>
       </c>
       <c r="N25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>1489</v>
+        <v>1911</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>873</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+        <v>1912</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1477</v>
+        <v>1498</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1479</v>
+        <v>1499</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>1478</v>
+        <v>1459</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1480</v>
+        <v>1500</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>1481</v>
+        <v>1501</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>1483</v>
+        <v>1503</v>
       </c>
       <c r="N26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>1484</v>
+        <v>1504</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>1485</v>
+        <v>819</v>
       </c>
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
@@ -45044,266 +45043,256 @@
         <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1898</v>
+        <v>1490</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1899</v>
+        <v>1459</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>1899</v>
+        <v>1459</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>284</v>
+        <v>510</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>958</v>
+        <v>511</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>1900</v>
+        <v>511</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>1901</v>
+        <v>511</v>
       </c>
       <c r="N27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>1902</v>
+        <v>511</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>1903</v>
+        <v>511</v>
       </c>
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>1905</v>
+      <c r="B28" s="14" t="s">
+        <v>2178</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1906</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>112</v>
+        <v>2125</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>2126</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>1907</v>
+        <v>2127</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>1908</v>
+        <v>328</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>1909</v>
+        <v>2128</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>1910</v>
+        <v>2129</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>1911</v>
+        <v>2130</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1498</v>
+        <v>2175</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1499</v>
+        <v>2132</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1459</v>
+        <v>2133</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1500</v>
+        <v>2134</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>1501</v>
+        <v>2135</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>1502</v>
+        <v>2136</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>1503</v>
+        <v>2137</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>1504</v>
+        <v>2138</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1490</v>
+        <v>2176</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>1394</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2140</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>1459</v>
+        <v>2141</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>510</v>
+        <v>2142</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>511</v>
+        <v>2143</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>511</v>
+        <v>2144</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>511</v>
+        <v>2145</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>511</v>
+        <v>2146</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+        <v>2147</v>
+      </c>
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>2188</v>
+      <c r="B31" s="4" t="s">
+        <v>2177</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2134</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>2135</v>
+        <v>327</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>2136</v>
+        <v>2128</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>328</v>
+        <v>2148</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>2137</v>
+        <v>2149</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>2138</v>
+        <v>2150</v>
       </c>
       <c r="N31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>2139</v>
+        <v>2151</v>
       </c>
       <c r="P31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>2140</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -45311,114 +45300,113 @@
         <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2185</v>
+        <v>2153</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>2141</v>
+        <v>2154</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2142</v>
+        <v>2155</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>2143</v>
+        <v>2156</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>2144</v>
+        <v>2157</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>2145</v>
+        <v>2158</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>2146</v>
+        <v>2159</v>
       </c>
       <c r="N32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>2147</v>
+        <v>2160</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2186</v>
+        <v>2162</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>2149</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>2150</v>
+        <v>327</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2151</v>
+        <v>510</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>2152</v>
+        <v>511</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>2153</v>
+        <v>511</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>2154</v>
+        <v>511</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>2155</v>
+        <v>511</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2187</v>
+        <v>2163</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>2157</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>327</v>
       </c>
@@ -45426,92 +45414,93 @@
         <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>2137</v>
+        <v>2164</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>2158</v>
+        <v>2165</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>2159</v>
+        <v>2166</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>2160</v>
+        <v>2167</v>
       </c>
       <c r="N34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>2161</v>
+        <v>2168</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2163</v>
+        <v>2170</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>2164</v>
-      </c>
+        <v>2171</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>2165</v>
+        <v>2171</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>2166</v>
+        <v>511</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>2167</v>
+        <v>510</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>2168</v>
+        <v>510</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>2169</v>
+        <v>510</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>2170</v>
+        <v>510</v>
       </c>
       <c r="P35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>2171</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>2172</v>
@@ -45519,7 +45508,9 @@
       <c r="C36" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>432</v>
+      </c>
       <c r="E36" s="4" t="s">
         <v>327</v>
       </c>
@@ -45527,192 +45518,37 @@
         <v>20</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>510</v>
+        <v>2173</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>511</v>
+        <v>2107</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>511</v>
+        <v>2099</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>511</v>
+        <v>2174</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>511</v>
+        <v>2095</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>2174</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>2175</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>2176</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>2177</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>2178</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>4</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>2180</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>2181</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>2182</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>2183</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>2116</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>2100</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>2184</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>2096</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
   </sheetData>
@@ -45724,7 +45560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37596C43-5CF7-4071-BC5D-1903FD86A711}">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B32" sqref="B13:B32"/>
     </sheetView>
   </sheetViews>
@@ -45809,16 +45645,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>346</v>
@@ -45836,19 +45672,19 @@
         <v>632</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>1919</v>
@@ -45886,7 +45722,7 @@
         <v>348</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>346</v>
@@ -45898,7 +45734,7 @@
         <v>632</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>1463</v>
@@ -45942,25 +45778,25 @@
         <v>632</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>257</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>1463</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>2126</v>
+        <v>2117</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>1466</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>1467</v>
@@ -45992,25 +45828,25 @@
         <v>1470</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>264</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>263</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>261</v>
@@ -46048,25 +45884,25 @@
         <v>1475</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>1471</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>2132</v>
+        <v>2123</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>1476</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>626</v>
@@ -47251,7 +47087,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>2191</v>
+        <v>2181</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>108</v>
@@ -47304,7 +47140,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>2192</v>
+        <v>2182</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>95</v>
@@ -47357,7 +47193,7 @@
         <v>112</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>2193</v>
+        <v>2183</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>327</v>
@@ -47410,7 +47246,7 @@
         <v>97</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>2194</v>
+        <v>2184</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>340</v>
@@ -47463,7 +47299,7 @@
         <v>112</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>2196</v>
+        <v>2186</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>112</v>
@@ -47510,7 +47346,7 @@
         <v>1452</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2195</v>
+        <v>2185</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>97</v>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7551ECD9-36E1-4BC1-A006-D352AD0531F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C5961-1ED5-414D-AA05-07B3633FC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11924" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11860" uniqueCount="2194">
   <si>
     <t>type</t>
   </si>
@@ -43616,7 +43616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B99C-50D2-44AF-83D4-EDC42EF00C51}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A15" activeCellId="1" sqref="A14:XFD14 A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -45558,10 +45558,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37596C43-5CF7-4071-BC5D-1903FD86A711}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B32" sqref="B13:B32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46342,214 +46342,214 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>112</v>
+        <v>708</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>630</v>
+        <v>953</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>952</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>630</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>348</v>
+        <v>954</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>631</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>632</v>
+        <v>955</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>608</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>609</v>
+        <v>284</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>611</v>
+        <v>20</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>259</v>
+        <v>956</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>256</v>
+        <v>957</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>633</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>272</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>757</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>458</v>
+        <v>960</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>959</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>459</v>
+        <v>961</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>738</v>
+        <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>739</v>
+        <v>962</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>740</v>
+        <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>374</v>
+        <v>963</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>741</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>366</v>
+        <v>964</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>742</v>
+        <v>20</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>743</v>
+        <v>965</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>744</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>745</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
+        <v>664</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>611</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>611</v>
+        <v>20</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>631</v>
+        <v>20</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>632</v>
+        <v>113</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>633</v>
+        <v>20</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>639</v>
+        <v>20</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>612</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>980</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>513</v>
+        <v>981</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>928</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>513</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>365</v>
+        <v>982</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>376</v>
+        <v>20</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>378</v>
+        <v>983</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>565</v>
+        <v>20</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>379</v>
+        <v>984</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>459</v>
+        <v>985</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>567</v>
+        <v>20</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>568</v>
+        <v>986</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>380</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>372</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -46557,52 +46557,52 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>952</v>
+        <v>992</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>952</v>
+        <v>993</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>994</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>954</v>
+        <v>713</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>955</v>
+        <v>311</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>284</v>
+        <v>995</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>957</v>
+        <v>281</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>958</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -46610,105 +46610,103 @@
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>757</v>
+        <v>997</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>960</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>959</v>
+        <v>998</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>961</v>
+        <v>999</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>964</v>
+        <v>1001</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>965</v>
+        <v>1002</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>576</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>664</v>
+        <v>1004</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>928</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>966</v>
+        <v>1005</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>994</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>98</v>
+        <v>713</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>113</v>
+        <v>575</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>113</v>
+        <v>1006</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>113</v>
+        <v>996</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>113</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -46716,14 +46714,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>980</v>
+        <v>1008</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>981</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
         <v>928</v>
       </c>
@@ -46731,37 +46727,37 @@
         <v>20</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>983</v>
+        <v>78</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>985</v>
+        <v>1011</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>986</v>
+        <v>1012</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>987</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -46769,52 +46765,52 @@
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>992</v>
+        <v>1029</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>993</v>
+        <v>1030</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>994</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>713</v>
+        <v>465</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>311</v>
+        <v>930</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>995</v>
+        <v>1031</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>996</v>
+        <v>1032</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>281</v>
+        <v>933</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>275</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -46822,539 +46818,543 @@
         <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>997</v>
+        <v>1034</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>928</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>998</v>
+        <v>928</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>999</v>
+        <v>1035</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>931</v>
+        <v>1036</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1000</v>
+        <v>1037</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1001</v>
+        <v>1038</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1002</v>
+        <v>1039</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>1003</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>1007</v>
+      <c r="A25" s="9">
+        <v>2</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>1013</v>
+      <c r="A26" s="9">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="A27" s="9">
+        <v>2</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>2</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>1040</v>
+      <c r="D28" s="7" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>336</v>
+        <v>647</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>108</v>
+      <c r="D29" s="10" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>490</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>329</v>
+        <v>85</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>330</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>341</v>
+        <v>144</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>1886</v>
+        <v>141</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>2</v>
+      <c r="A30" s="9" t="s">
+        <v>1452</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>485</v>
+        <v>2185</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>2182</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>95</v>
+      <c r="D30" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>490</v>
+        <v>89</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>486</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>2</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>923</v>
+        <v>144</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>2183</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M31" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="N31" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>2</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>2184</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>4</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>2186</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>2185</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -47364,245 +47364,33 @@
         <v>143</v>
       </c>
       <c r="H34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="O34" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="P34" s="4" t="s">
-        <v>342</v>
+        <v>91</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>1</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1913</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>1527</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N36" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>1</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>1644</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="P38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -47611,20 +47399,20 @@
     <hyperlink ref="C13" r:id="rId1" xr:uid="{A87CEB5A-A947-4482-84D2-36C292F608A3}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{B3D0F236-5982-45AC-B081-0D3953DABC79}"/>
     <hyperlink ref="E14" r:id="rId3" xr:uid="{EE272CF4-63C3-4466-BD72-2711DC9EADA7}"/>
-    <hyperlink ref="C19" r:id="rId4" xr:uid="{C79FD258-C14A-4709-B1BD-739E2329B541}"/>
-    <hyperlink ref="E19" r:id="rId5" xr:uid="{456A76DE-30A9-4AD4-97D2-230AE40F714C}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{1392A3DD-7AB2-4A12-87E3-B900510A8BCD}"/>
-    <hyperlink ref="E20" r:id="rId7" xr:uid="{F533D1F7-1008-44BA-AC9C-70B193493F06}"/>
-    <hyperlink ref="C21" r:id="rId8" xr:uid="{473E4D6E-14DB-405D-A059-0CAC28824BCF}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{8DC2F248-9A16-4D81-94B8-04A85A057CE2}"/>
-    <hyperlink ref="E22" r:id="rId10" xr:uid="{1B198517-0F54-45D6-99BA-2D2548B269CC}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{C299F022-26E5-48DE-A07C-24EEA0E117BC}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{D57D3A4C-D1E3-44B3-8745-8A2173595FCD}"/>
-    <hyperlink ref="C25" r:id="rId13" xr:uid="{FA3E5050-7579-4FE3-B245-66022D591C1B}"/>
-    <hyperlink ref="C26" r:id="rId14" xr:uid="{1F90945A-5EBC-4789-833B-501127459070}"/>
-    <hyperlink ref="E26" r:id="rId15" xr:uid="{94A95D5D-343A-4CFE-A72E-E2CD987236B5}"/>
-    <hyperlink ref="C28" r:id="rId16" xr:uid="{214451E0-B377-47C3-99E5-2CF17AD9E5CC}"/>
-    <hyperlink ref="E28" r:id="rId17" xr:uid="{EE6DF856-9230-40B8-92F1-6A618DC048A5}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{C79FD258-C14A-4709-B1BD-739E2329B541}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{456A76DE-30A9-4AD4-97D2-230AE40F714C}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{1392A3DD-7AB2-4A12-87E3-B900510A8BCD}"/>
+    <hyperlink ref="E16" r:id="rId7" xr:uid="{F533D1F7-1008-44BA-AC9C-70B193493F06}"/>
+    <hyperlink ref="C17" r:id="rId8" xr:uid="{473E4D6E-14DB-405D-A059-0CAC28824BCF}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{8DC2F248-9A16-4D81-94B8-04A85A057CE2}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{1B198517-0F54-45D6-99BA-2D2548B269CC}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{C299F022-26E5-48DE-A07C-24EEA0E117BC}"/>
+    <hyperlink ref="E20" r:id="rId12" xr:uid="{D57D3A4C-D1E3-44B3-8745-8A2173595FCD}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{FA3E5050-7579-4FE3-B245-66022D591C1B}"/>
+    <hyperlink ref="C22" r:id="rId14" xr:uid="{1F90945A-5EBC-4789-833B-501127459070}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{94A95D5D-343A-4CFE-A72E-E2CD987236B5}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{214451E0-B377-47C3-99E5-2CF17AD9E5CC}"/>
+    <hyperlink ref="E24" r:id="rId17" xr:uid="{EE6DF856-9230-40B8-92F1-6A618DC048A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C5961-1ED5-414D-AA05-07B3633FC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -6594,12 +6593,6 @@
     <t>11 тур. 18.10.2025. 15:15</t>
   </si>
   <si>
-    <t>ЦСКА : Балтика ()</t>
-  </si>
-  <si>
-    <t>Спартак : Пари НН</t>
-  </si>
-  <si>
     <t>На каком месте находится Спартак после десяти туров?</t>
   </si>
   <si>
@@ -6625,12 +6618,18 @@
   </si>
   <si>
     <t>25-летний (27.05.2000) нигерийский центрфорвард. Подписан 30 июня 2025 из болгарского «Арда» за ≈ €0,9 млн</t>
+  </si>
+  <si>
+    <t>ЦСКА 1:0 Балтика (И. Дивеев 90+5')</t>
+  </si>
+  <si>
+    <t>Спартак 3:0 Пари НН (М. Угальде 10', Ж. Фернандеш 36', 64')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7062,7 +7061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -9110,14 +9109,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E21" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -10889,22 +10888,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E17" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="E24" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C33" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="E33" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="E23" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="E24" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6"/>
+    <hyperlink ref="E32" r:id="rId7"/>
+    <hyperlink ref="C33" r:id="rId8"/>
+    <hyperlink ref="E33" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="C4" workbookViewId="0">
@@ -13009,31 +13008,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{00000000-0004-0000-0700-000004000000}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0700-000005000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0700-000006000000}"/>
-    <hyperlink ref="C20" r:id="rId8" xr:uid="{00000000-0004-0000-0700-000007000000}"/>
-    <hyperlink ref="E20" r:id="rId9" xr:uid="{00000000-0004-0000-0700-000008000000}"/>
-    <hyperlink ref="C35" r:id="rId10" xr:uid="{00000000-0004-0000-0700-000009000000}"/>
-    <hyperlink ref="C36" r:id="rId11" xr:uid="{00000000-0004-0000-0700-00000A000000}"/>
-    <hyperlink ref="E36" r:id="rId12" xr:uid="{00000000-0004-0000-0700-00000B000000}"/>
-    <hyperlink ref="C38" r:id="rId13" xr:uid="{00000000-0004-0000-0700-00000C000000}"/>
-    <hyperlink ref="E38" r:id="rId14" xr:uid="{00000000-0004-0000-0700-00000D000000}"/>
-    <hyperlink ref="C39" r:id="rId15" xr:uid="{00000000-0004-0000-0700-00000E000000}"/>
-    <hyperlink ref="E39" r:id="rId16" xr:uid="{00000000-0004-0000-0700-00000F000000}"/>
-    <hyperlink ref="C40" r:id="rId17" xr:uid="{00000000-0004-0000-0700-000010000000}"/>
-    <hyperlink ref="E40" r:id="rId18" xr:uid="{00000000-0004-0000-0700-000011000000}"/>
+    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="E16" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="E17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="E19" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="E20" r:id="rId9"/>
+    <hyperlink ref="C35" r:id="rId10"/>
+    <hyperlink ref="C36" r:id="rId11"/>
+    <hyperlink ref="E36" r:id="rId12"/>
+    <hyperlink ref="C38" r:id="rId13"/>
+    <hyperlink ref="E38" r:id="rId14"/>
+    <hyperlink ref="C39" r:id="rId15"/>
+    <hyperlink ref="E39" r:id="rId16"/>
+    <hyperlink ref="C40" r:id="rId17"/>
+    <hyperlink ref="E40" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14909,38 +14908,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0900-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0900-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0900-000007000000}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="C26" r:id="rId10" xr:uid="{00000000-0004-0000-0900-000009000000}"/>
-    <hyperlink ref="C27" r:id="rId11" xr:uid="{00000000-0004-0000-0900-00000A000000}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{00000000-0004-0000-0900-00000B000000}"/>
-    <hyperlink ref="E28" r:id="rId13" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0900-00000D000000}"/>
-    <hyperlink ref="E29" r:id="rId15" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0900-000010000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0900-000011000000}"/>
-    <hyperlink ref="E32" r:id="rId19" xr:uid="{00000000-0004-0000-0900-000012000000}"/>
-    <hyperlink ref="C33" r:id="rId20" xr:uid="{00000000-0004-0000-0900-000013000000}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{00000000-0004-0000-0900-000014000000}"/>
-    <hyperlink ref="C34" r:id="rId22" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
-    <hyperlink ref="C35" r:id="rId24" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
-    <hyperlink ref="E35" r:id="rId25" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="C25" r:id="rId9"/>
+    <hyperlink ref="C26" r:id="rId10"/>
+    <hyperlink ref="C27" r:id="rId11"/>
+    <hyperlink ref="C28" r:id="rId12"/>
+    <hyperlink ref="E28" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="E32" r:id="rId19"/>
+    <hyperlink ref="C33" r:id="rId20"/>
+    <hyperlink ref="E33" r:id="rId21"/>
+    <hyperlink ref="C34" r:id="rId22"/>
+    <hyperlink ref="E34" r:id="rId23"/>
+    <hyperlink ref="C35" r:id="rId24"/>
+    <hyperlink ref="E35" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0"/>
@@ -16759,38 +16758,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-0A00-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-0A00-000005000000}"/>
-    <hyperlink ref="C22" r:id="rId7" xr:uid="{00000000-0004-0000-0A00-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0A00-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0A00-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0A00-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0A00-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0A00-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0A00-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0A00-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0A00-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0A00-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0A00-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0A00-000011000000}"/>
-    <hyperlink ref="E31" r:id="rId19" xr:uid="{00000000-0004-0000-0A00-000012000000}"/>
-    <hyperlink ref="C32" r:id="rId20" xr:uid="{00000000-0004-0000-0A00-000013000000}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{00000000-0004-0000-0A00-000014000000}"/>
-    <hyperlink ref="C33" r:id="rId22" xr:uid="{00000000-0004-0000-0A00-000015000000}"/>
-    <hyperlink ref="E33" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
-    <hyperlink ref="C34" r:id="rId24" xr:uid="{00000000-0004-0000-0A00-000017000000}"/>
-    <hyperlink ref="E34" r:id="rId25" xr:uid="{00000000-0004-0000-0A00-000018000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
+    <hyperlink ref="E31" r:id="rId19"/>
+    <hyperlink ref="C32" r:id="rId20"/>
+    <hyperlink ref="E32" r:id="rId21"/>
+    <hyperlink ref="C33" r:id="rId22"/>
+    <hyperlink ref="E33" r:id="rId23"/>
+    <hyperlink ref="C34" r:id="rId24"/>
+    <hyperlink ref="E34" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18513,30 +18512,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0B00-000003000000}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0B00-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="C25" r:id="rId10" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0B00-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="C30" r:id="rId14" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="C32" r:id="rId16" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="E32" r:id="rId17" xr:uid="{00000000-0004-0000-0B00-000010000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="C25" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="C30" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="C32" r:id="rId16"/>
+    <hyperlink ref="E32" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -20565,36 +20564,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
-    <hyperlink ref="C31" r:id="rId16" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
-    <hyperlink ref="E31" r:id="rId17" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
-    <hyperlink ref="C32" r:id="rId18" xr:uid="{00000000-0004-0000-0C00-000011000000}"/>
-    <hyperlink ref="C33" r:id="rId19" xr:uid="{00000000-0004-0000-0C00-000012000000}"/>
-    <hyperlink ref="E33" r:id="rId20" xr:uid="{00000000-0004-0000-0C00-000013000000}"/>
-    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0C00-000014000000}"/>
-    <hyperlink ref="C38" r:id="rId22" xr:uid="{00000000-0004-0000-0C00-000015000000}"/>
-    <hyperlink ref="E38" r:id="rId23" xr:uid="{00000000-0004-0000-0C00-000016000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C13" r:id="rId4"/>
+    <hyperlink ref="E13" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C31" r:id="rId16"/>
+    <hyperlink ref="E31" r:id="rId17"/>
+    <hyperlink ref="C32" r:id="rId18"/>
+    <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="E33" r:id="rId20"/>
+    <hyperlink ref="C34" r:id="rId21"/>
+    <hyperlink ref="C38" r:id="rId22"/>
+    <hyperlink ref="E38" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
@@ -22888,31 +22887,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="C13" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{00000000-0004-0000-0D00-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId7" xr:uid="{00000000-0004-0000-0D00-000006000000}"/>
-    <hyperlink ref="C23" r:id="rId8" xr:uid="{00000000-0004-0000-0D00-000007000000}"/>
-    <hyperlink ref="E23" r:id="rId9" xr:uid="{00000000-0004-0000-0D00-000008000000}"/>
-    <hyperlink ref="C24" r:id="rId10" xr:uid="{00000000-0004-0000-0D00-000009000000}"/>
-    <hyperlink ref="E24" r:id="rId11" xr:uid="{00000000-0004-0000-0D00-00000A000000}"/>
-    <hyperlink ref="C25" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
-    <hyperlink ref="C28" r:id="rId13" xr:uid="{00000000-0004-0000-0D00-00000C000000}"/>
-    <hyperlink ref="E28" r:id="rId14" xr:uid="{00000000-0004-0000-0D00-00000D000000}"/>
-    <hyperlink ref="C29" r:id="rId15" xr:uid="{00000000-0004-0000-0D00-00000E000000}"/>
-    <hyperlink ref="C30" r:id="rId16" xr:uid="{00000000-0004-0000-0D00-00000F000000}"/>
-    <hyperlink ref="E30" r:id="rId17" xr:uid="{00000000-0004-0000-0D00-000010000000}"/>
-    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0D00-000011000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="E12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E16" r:id="rId5"/>
+    <hyperlink ref="C22" r:id="rId6"/>
+    <hyperlink ref="E22" r:id="rId7"/>
+    <hyperlink ref="C23" r:id="rId8"/>
+    <hyperlink ref="E23" r:id="rId9"/>
+    <hyperlink ref="C24" r:id="rId10"/>
+    <hyperlink ref="E24" r:id="rId11"/>
+    <hyperlink ref="C25" r:id="rId12"/>
+    <hyperlink ref="C28" r:id="rId13"/>
+    <hyperlink ref="E28" r:id="rId14"/>
+    <hyperlink ref="C29" r:id="rId15"/>
+    <hyperlink ref="C30" r:id="rId16"/>
+    <hyperlink ref="E30" r:id="rId17"/>
+    <hyperlink ref="C31" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
@@ -24100,7 +24099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -26060,33 +26059,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="C22" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="E22" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="C23" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="C24" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="C27" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="E28" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="C29" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="E29" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="E30" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="E31" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="C36" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="E36" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="E37" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="C12" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId2"/>
+    <hyperlink ref="E13" r:id="rId3"/>
+    <hyperlink ref="C22" r:id="rId4"/>
+    <hyperlink ref="E22" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="C24" r:id="rId8"/>
+    <hyperlink ref="E24" r:id="rId9"/>
+    <hyperlink ref="C27" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="E28" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId13"/>
+    <hyperlink ref="E29" r:id="rId14"/>
+    <hyperlink ref="E30" r:id="rId15"/>
+    <hyperlink ref="E31" r:id="rId16"/>
+    <hyperlink ref="C36" r:id="rId17"/>
+    <hyperlink ref="E36" r:id="rId18"/>
+    <hyperlink ref="C37" r:id="rId19"/>
+    <hyperlink ref="E37" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27648,30 +27647,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
-    <hyperlink ref="C27" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
-    <hyperlink ref="E28" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
-    <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="C14" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="C23" r:id="rId9"/>
+    <hyperlink ref="E23" r:id="rId10"/>
+    <hyperlink ref="C24" r:id="rId11"/>
+    <hyperlink ref="E24" r:id="rId12"/>
+    <hyperlink ref="C27" r:id="rId13"/>
+    <hyperlink ref="C28" r:id="rId14"/>
+    <hyperlink ref="E28" r:id="rId15"/>
+    <hyperlink ref="C29" r:id="rId16"/>
+    <hyperlink ref="E29" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -30155,27 +30154,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E43" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="C44" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E44" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C45" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E45" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E46" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="E47" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="C42" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="C43" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C46" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C47" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C19" r:id="rId1"/>
+    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="E43" r:id="rId3"/>
+    <hyperlink ref="C44" r:id="rId4"/>
+    <hyperlink ref="E44" r:id="rId5"/>
+    <hyperlink ref="C45" r:id="rId6"/>
+    <hyperlink ref="E45" r:id="rId7"/>
+    <hyperlink ref="E46" r:id="rId8"/>
+    <hyperlink ref="E47" r:id="rId9"/>
+    <hyperlink ref="C42" r:id="rId10"/>
+    <hyperlink ref="C43" r:id="rId11"/>
+    <hyperlink ref="C46" r:id="rId12"/>
+    <hyperlink ref="C47" r:id="rId13"/>
+    <hyperlink ref="E42" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31949,19 +31948,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
-    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{00000000-0004-0000-1100-000003000000}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{00000000-0004-0000-1100-000004000000}"/>
-    <hyperlink ref="E28" r:id="rId6" xr:uid="{00000000-0004-0000-1100-000005000000}"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+    <hyperlink ref="C23" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId4"/>
+    <hyperlink ref="C28" r:id="rId5"/>
+    <hyperlink ref="E28" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
@@ -33202,15 +33201,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="C20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33278,7 +33277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33346,7 +33345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33414,7 +33413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -35848,31 +35847,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="C24" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="C26" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E25" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="C27" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="C35" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="C28" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="C33" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="C32" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="C29" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="E34" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="C37" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="E29" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="C43" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="C41" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="C40" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="C39" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="C46" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="E46" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="E41" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="C23" r:id="rId1"/>
+    <hyperlink ref="C24" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
+    <hyperlink ref="C26" r:id="rId6"/>
+    <hyperlink ref="E25" r:id="rId7"/>
+    <hyperlink ref="C27" r:id="rId8"/>
+    <hyperlink ref="C35" r:id="rId9"/>
+    <hyperlink ref="C34" r:id="rId10"/>
+    <hyperlink ref="C28" r:id="rId11"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="C32" r:id="rId13"/>
+    <hyperlink ref="C29" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E34" r:id="rId16"/>
+    <hyperlink ref="C37" r:id="rId17"/>
+    <hyperlink ref="E29" r:id="rId18"/>
+    <hyperlink ref="C43" r:id="rId19"/>
+    <hyperlink ref="C41" r:id="rId20"/>
+    <hyperlink ref="C40" r:id="rId21"/>
+    <hyperlink ref="C39" r:id="rId22"/>
+    <hyperlink ref="C46" r:id="rId23"/>
+    <hyperlink ref="E46" r:id="rId24"/>
+    <hyperlink ref="E41" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId26"/>
@@ -35880,7 +35879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -38058,16 +38057,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C32" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="E32" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="C25" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="E23" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="E25" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="E38" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="C38" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="C32" r:id="rId1"/>
+    <hyperlink ref="E32" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId3"/>
+    <hyperlink ref="C24" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="E23" r:id="rId6"/>
+    <hyperlink ref="E24" r:id="rId7"/>
+    <hyperlink ref="E25" r:id="rId8"/>
+    <hyperlink ref="E38" r:id="rId9"/>
+    <hyperlink ref="C38" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -38075,7 +38074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40188,19 +40187,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C24" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="E23" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="E22" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C24" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E23" r:id="rId5"/>
+    <hyperlink ref="E22" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -42016,27 +42015,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C31" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="C32" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="C33" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="C30" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
-    <hyperlink ref="C29" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
-    <hyperlink ref="C28" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
-    <hyperlink ref="C23" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
-    <hyperlink ref="C22" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="E28" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="E29" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="E30" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="E31" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="E32" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="C31" r:id="rId1"/>
+    <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="C33" r:id="rId3"/>
+    <hyperlink ref="C30" r:id="rId4"/>
+    <hyperlink ref="C29" r:id="rId5"/>
+    <hyperlink ref="C28" r:id="rId6"/>
+    <hyperlink ref="C23" r:id="rId7"/>
+    <hyperlink ref="C22" r:id="rId8"/>
+    <hyperlink ref="E22" r:id="rId9"/>
+    <hyperlink ref="E28" r:id="rId10"/>
+    <hyperlink ref="E29" r:id="rId11"/>
+    <hyperlink ref="E30" r:id="rId12"/>
+    <hyperlink ref="E31" r:id="rId13"/>
+    <hyperlink ref="E32" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -43601,19 +43600,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" xr:uid="{9792B3BE-B0A0-4ECE-89BF-3DD2A6E28023}"/>
-    <hyperlink ref="E21" r:id="rId2" xr:uid="{78307353-E4B7-4D35-8B3A-9773AADB93E5}"/>
-    <hyperlink ref="C21" r:id="rId3" xr:uid="{74FCC0B9-306E-43F1-B5D9-97E848727481}"/>
-    <hyperlink ref="E23" r:id="rId4" xr:uid="{328609B9-8DBC-4E29-9D58-1F7413879FA1}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{8E80FB5D-A0F0-4ED9-AC5D-491E6E7EAD2F}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0800-000004000000}"/>
+    <hyperlink ref="E20" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="E23" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD7B99C-50D2-44AF-83D4-EDC42EF00C51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -43753,13 +43752,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -43806,13 +43805,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -43830,7 +43829,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>20</v>
@@ -43842,7 +43841,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>20</v>
@@ -43915,7 +43914,7 @@
         <v>2171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>2171</v>
@@ -45557,11 +45556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37596C43-5CF7-4071-BC5D-1903FD86A711}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46981,7 +46980,7 @@
         <v>112</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>2183</v>
+        <v>2192</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>327</v>
@@ -47034,7 +47033,7 @@
         <v>97</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>2184</v>
+        <v>2193</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>340</v>
@@ -47087,7 +47086,7 @@
         <v>112</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>112</v>
@@ -47134,7 +47133,7 @@
         <v>1452</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>97</v>
@@ -47396,23 +47395,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{A87CEB5A-A947-4482-84D2-36C292F608A3}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{B3D0F236-5982-45AC-B081-0D3953DABC79}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{EE272CF4-63C3-4466-BD72-2711DC9EADA7}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{C79FD258-C14A-4709-B1BD-739E2329B541}"/>
-    <hyperlink ref="E15" r:id="rId5" xr:uid="{456A76DE-30A9-4AD4-97D2-230AE40F714C}"/>
-    <hyperlink ref="C16" r:id="rId6" xr:uid="{1392A3DD-7AB2-4A12-87E3-B900510A8BCD}"/>
-    <hyperlink ref="E16" r:id="rId7" xr:uid="{F533D1F7-1008-44BA-AC9C-70B193493F06}"/>
-    <hyperlink ref="C17" r:id="rId8" xr:uid="{473E4D6E-14DB-405D-A059-0CAC28824BCF}"/>
-    <hyperlink ref="C18" r:id="rId9" xr:uid="{8DC2F248-9A16-4D81-94B8-04A85A057CE2}"/>
-    <hyperlink ref="E18" r:id="rId10" xr:uid="{1B198517-0F54-45D6-99BA-2D2548B269CC}"/>
-    <hyperlink ref="C20" r:id="rId11" xr:uid="{C299F022-26E5-48DE-A07C-24EEA0E117BC}"/>
-    <hyperlink ref="E20" r:id="rId12" xr:uid="{D57D3A4C-D1E3-44B3-8745-8A2173595FCD}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{FA3E5050-7579-4FE3-B245-66022D591C1B}"/>
-    <hyperlink ref="C22" r:id="rId14" xr:uid="{1F90945A-5EBC-4789-833B-501127459070}"/>
-    <hyperlink ref="E22" r:id="rId15" xr:uid="{94A95D5D-343A-4CFE-A72E-E2CD987236B5}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{214451E0-B377-47C3-99E5-2CF17AD9E5CC}"/>
-    <hyperlink ref="E24" r:id="rId17" xr:uid="{EE6DF856-9230-40B8-92F1-6A618DC048A5}"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
+    <hyperlink ref="E14" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
+    <hyperlink ref="C16" r:id="rId6"/>
+    <hyperlink ref="E16" r:id="rId7"/>
+    <hyperlink ref="C17" r:id="rId8"/>
+    <hyperlink ref="C18" r:id="rId9"/>
+    <hyperlink ref="E18" r:id="rId10"/>
+    <hyperlink ref="C20" r:id="rId11"/>
+    <hyperlink ref="E20" r:id="rId12"/>
+    <hyperlink ref="C21" r:id="rId13"/>
+    <hyperlink ref="C22" r:id="rId14"/>
+    <hyperlink ref="E22" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="E24" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RPL_V2/xlsx/Матч Тура 25-26.xlsx
+++ b/RPL_V2/xlsx/Матч Тура 25-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\amaranth64.github.io\RPL_V2\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C5961-1ED5-414D-AA05-07B3633FC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAB9F1C-A993-442E-98CE-84AC4CBF4386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mt_zenit_cska" sheetId="21" r:id="rId1"/>
@@ -22,28 +22,29 @@
     <sheet name="mt_krasnodar_zenit" sheetId="4" r:id="rId7"/>
     <sheet name="mt_cska_baltika" sheetId="27" r:id="rId8"/>
     <sheet name="mt_cska_spartak" sheetId="28" r:id="rId9"/>
-    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId10"/>
-    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId11"/>
-    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId12"/>
-    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId13"/>
-    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId14"/>
-    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId15"/>
-    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId16"/>
-    <sheet name="mt_itogi" sheetId="10" r:id="rId17"/>
-    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId18"/>
-    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId19"/>
-    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId20"/>
-    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId21"/>
-    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId22"/>
-    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId23"/>
-    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId24"/>
+    <sheet name="mt_loko_cska" sheetId="29" r:id="rId10"/>
+    <sheet name="mt_loko_krasnodar" sheetId="1" r:id="rId11"/>
+    <sheet name="mt_spartak_dinamo" sheetId="3" r:id="rId12"/>
+    <sheet name="mt_dinamo_cska" sheetId="5" r:id="rId13"/>
+    <sheet name="mt_spartak_krasnodar" sheetId="6" r:id="rId14"/>
+    <sheet name="mt_zenit_lokomotiv" sheetId="7" r:id="rId15"/>
+    <sheet name="mt_spartak_cska" sheetId="8" r:id="rId16"/>
+    <sheet name="mt_rubin_krasnodar" sheetId="9" r:id="rId17"/>
+    <sheet name="mt_itogi" sheetId="10" r:id="rId18"/>
+    <sheet name="mt_spartak_lokomotiv" sheetId="11" r:id="rId19"/>
+    <sheet name="mt_krasnodar_spartak" sheetId="12" r:id="rId20"/>
+    <sheet name="mt_krasnodar_lokomotiv" sheetId="13" r:id="rId21"/>
+    <sheet name="mt_rubin_spartak" sheetId="15" r:id="rId22"/>
+    <sheet name="mt_ks_lokomotiv" sheetId="17" r:id="rId23"/>
+    <sheet name="mt_cska_dinamo" sheetId="18" r:id="rId24"/>
+    <sheet name="mt_zenit_krasnodar" sheetId="19" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11860" uniqueCount="2194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12450" uniqueCount="2236">
   <si>
     <t>type</t>
   </si>
@@ -6625,6 +6626,132 @@
   </si>
   <si>
     <t>25-летний (27.05.2000) нигерийский центрфорвард. Подписан 30 июня 2025 из болгарского «Арда» за ≈ €0,9 млн</t>
+  </si>
+  <si>
+    <t>На каком месте находится Локомотив после одиннадцати туров?</t>
+  </si>
+  <si>
+    <t>На каком месте находится ЦСКА после одиннадцати туров?</t>
+  </si>
+  <si>
+    <t>Кто из этих тренеров никогда не тренировал Локомотив?</t>
+  </si>
+  <si>
+    <t>Юрий Красножан</t>
+  </si>
+  <si>
+    <t>Кто из этих игроков является воспитанником Локомотива?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр Кокорин провел в академии Локомотива 8 лет с 2000-2008 год </t>
+  </si>
+  <si>
+    <t>В каком сезоне Локомотив в последний раз становился чемпионом?</t>
+  </si>
+  <si>
+    <t>5 мая 2018 года после домашней победы над «Зенитом» в матче 29-го тура Локомотив в третий раз стал чемпионом России</t>
+  </si>
+  <si>
+    <t>2017/18</t>
+  </si>
+  <si>
+    <t>2014/15</t>
+  </si>
+  <si>
+    <t>2018/19</t>
+  </si>
+  <si>
+    <t>2019/20</t>
+  </si>
+  <si>
+    <t>Кто является рекордсменом Локомотива по забитым мячам за клуб?</t>
+  </si>
+  <si>
+    <t>128 голов в 422 матчах</t>
+  </si>
+  <si>
+    <t>Дмитрий Лоськов</t>
+  </si>
+  <si>
+    <t>Дмитрий Сычёв</t>
+  </si>
+  <si>
+    <t>Виктор Соколов</t>
+  </si>
+  <si>
+    <t>Олег Гарин</t>
+  </si>
+  <si>
+    <t>Виктор Ворошилов</t>
+  </si>
+  <si>
+    <t>Как зовут бывшего игрока Локомотива, единственного представителя сборной Шотландии в истории клуба?</t>
+  </si>
+  <si>
+    <t>Гарри О’Коннор</t>
+  </si>
+  <si>
+    <t>Уинстон Паркс</t>
+  </si>
+  <si>
+    <t>Рето Циглер</t>
+  </si>
+  <si>
+    <t>Питер Одемвингие</t>
+  </si>
+  <si>
+    <t>Беннет Обиора</t>
+  </si>
+  <si>
+    <t>Джеймс Чартон</t>
+  </si>
+  <si>
+    <t>Кто из этих футболистов записывал совместный трек "Мой друг" с группой "Руки вверх"?</t>
+  </si>
+  <si>
+    <t>39-летний (08.04.1986) российский вратарь. Воспитанник ЦСКА, дебютировал в 2003 году и с тех пор клуб не покидал</t>
+  </si>
+  <si>
+    <t>С каким клубом ЦСКА сыграл золотой матч за чемпионство в 2002 году?</t>
+  </si>
+  <si>
+    <t>Золотой матч 2002 года ЦСКА проиграл «Локомотиву» со счётом 0:1 на стадионе «Лужники»</t>
+  </si>
+  <si>
+    <t>Спартак М</t>
+  </si>
+  <si>
+    <t>Динамо М</t>
+  </si>
+  <si>
+    <t>logo_alania</t>
+  </si>
+  <si>
+    <t>Алания</t>
+  </si>
+  <si>
+    <t>Правда, что ЦСКА первым в России собрал оригиналы всех национальных трофеев?</t>
+  </si>
+  <si>
+    <t>13 тур. 25.10.2025. 19:00</t>
+  </si>
+  <si>
+    <t>13 тур. 26.10.2025. 13:00</t>
+  </si>
+  <si>
+    <t>ЦСКА 3:2 Спартак (К. Глебов 5', И. Обляков 12', Д. Круговой 18' - Ж. Фернандеш 21', Л.Гарсия 57')</t>
+  </si>
+  <si>
+    <t>Динамо 3:5 Локомотив (И. Сергеев 22', Бителло 27',  М. Осипенко 85' - Д. Пруцев 1', А. Батраков 43', Н. Комличенко 68', Д. Воробьев 81', А. Руденко 90+2')</t>
+  </si>
+  <si>
+    <t>23 очка</t>
+  </si>
+  <si>
+    <t>20-летний (01.03.2004) российский защитник-воспитанник</t>
+  </si>
+  <si>
+    <t>25-летний (13.12.1998) российский правый защитник</t>
   </si>
 </sst>
 </file>
@@ -9117,6 +9244,2013 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588EDDF4-9C48-4FE0-8A2D-A0D81AE16082}">
+  <dimension ref="A1:T37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>1915</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>2119</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>2122</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>1916</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>1765</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>1759</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>1761</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>1777</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>1919</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>923</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2194</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1871</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1870</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1872</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1922</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1913</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1925</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="4">
+        <v>1937</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1903</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>2066</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2214</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>2215</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2217</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2218</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>2225</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>2226</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>1897</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>1901</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>1902</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>1903</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{57005137-2617-4683-B304-9039132F7E6A}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{DA31A6CC-91BF-4A07-B6CF-596846C6B823}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -10903,7 +13037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
@@ -13032,7 +15166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
@@ -14939,7 +17073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
@@ -16789,7 +18923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
@@ -18535,7 +20669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
@@ -20593,7 +22727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
@@ -22911,7 +25045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -24099,7 +26233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q37"/>
   <sheetViews>
@@ -26080,1591 +28214,6 @@
     <hyperlink ref="E36" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
     <hyperlink ref="C37" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
     <hyperlink ref="E37" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:Q29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
-    <col min="5" max="5" width="84" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="23" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>1358</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>1359</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>1360</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1339</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>1362</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>1369</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="C23" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
-    <hyperlink ref="E24" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
-    <hyperlink ref="C27" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
-    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
-    <hyperlink ref="E28" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
-    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
-    <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30175,6 +30724,1591 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="79" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="5" max="5" width="84" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="E23" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{00000000-0004-0000-1000-00000A000000}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{00000000-0004-0000-1000-00000B000000}"/>
+    <hyperlink ref="C27" r:id="rId13" xr:uid="{00000000-0004-0000-1000-00000C000000}"/>
+    <hyperlink ref="C28" r:id="rId14" xr:uid="{00000000-0004-0000-1000-00000D000000}"/>
+    <hyperlink ref="E28" r:id="rId15" xr:uid="{00000000-0004-0000-1000-00000E000000}"/>
+    <hyperlink ref="C29" r:id="rId16" xr:uid="{00000000-0004-0000-1000-00000F000000}"/>
+    <hyperlink ref="E29" r:id="rId17" xr:uid="{00000000-0004-0000-1000-000010000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
@@ -31960,7 +34094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
@@ -33209,7 +35343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -33277,7 +35411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -33345,7 +35479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -35884,7 +38018,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45560,8 +47694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37596C43-5CF7-4071-BC5D-1903FD86A711}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
